--- a/resource_api/raporlar/dosyalar/Atlanta_SM_stock.xlsx
+++ b/resource_api/raporlar/dosyalar/Atlanta_SM_stock.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Sayfa1'!$A$2:$T$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sayfa1'!$A$2:$T$2</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="[$$-409]#,##0.00" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -468,137 +468,205 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="16" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="17" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="24" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -911,24 +979,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="17.88671875"/>
-    <col customWidth="1" max="2" min="2" style="4" width="16.77734375"/>
-    <col customWidth="1" max="3" min="3" style="4" width="15.77734375"/>
-    <col customWidth="1" max="4" min="4" style="4" width="64.77734375"/>
-    <col customWidth="1" max="5" min="5" style="1" width="8.5546875"/>
-    <col customWidth="1" max="6" min="6" style="1" width="10.33203125"/>
-    <col customWidth="1" max="7" min="7" style="1" width="9.44140625"/>
-    <col customWidth="1" max="8" min="8" style="6" width="15.109375"/>
-    <col customWidth="1" max="9" min="9" style="6" width="11.109375"/>
-    <col customWidth="1" max="10" min="10" style="1" width="8.21875"/>
-    <col customWidth="1" max="11" min="11" style="1" width="9.88671875"/>
-    <col customWidth="1" max="12" min="12" style="6" width="13.109375"/>
-    <col customWidth="1" max="14" min="13" style="1" width="8.88671875"/>
-    <col customWidth="1" max="19" min="15" style="6" width="14.5546875"/>
-    <col customWidth="1" max="20" min="20" style="9" width="14.33203125"/>
+    <col width="17.88671875" customWidth="1" style="4" min="1" max="1"/>
+    <col width="16.77734375" customWidth="1" style="4" min="2" max="2"/>
+    <col width="15.77734375" customWidth="1" style="4" min="3" max="3"/>
+    <col width="64.77734375" customWidth="1" style="4" min="4" max="4"/>
+    <col width="8.5546875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="10.33203125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="9.44140625" customWidth="1" style="1" min="7" max="7"/>
+    <col width="15.109375" customWidth="1" style="6" min="8" max="8"/>
+    <col width="11.109375" customWidth="1" style="6" min="9" max="9"/>
+    <col width="8.21875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="9.88671875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13.109375" customWidth="1" style="6" min="12" max="12"/>
+    <col width="8.88671875" customWidth="1" style="1" min="13" max="14"/>
+    <col width="14.5546875" customWidth="1" style="6" min="15" max="19"/>
+    <col width="14.33203125" customWidth="1" style="9" min="20" max="20"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="25.8" r="1" thickBot="1">
+    <row r="1" ht="25.8" customHeight="1" thickBot="1">
       <c r="A1" s="26" t="inlineStr">
         <is>
           <t>SKU</t>
@@ -1002,7 +1070,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.2" r="2" thickBot="1">
+    <row r="2" ht="16.2" customHeight="1" thickBot="1">
       <c r="A2" s="42" t="n"/>
       <c r="B2" s="43" t="n"/>
       <c r="C2" s="44" t="n"/>
@@ -1075,47 +1143,47 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>10076469</t>
+          <t>6000073</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>APMIRUS</t>
+          <t>6000073</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>22ATL44</t>
+          <t>22ATL48</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Mina Rustic /Pattern/ F&amp;BF&amp;CE</t>
+          <t>Botticino Super LiAht Cream Marble Tile - 2"x2"x3/8" - Tumbled</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G3" s="10" t="n">
-        <v>38.66</v>
+        <v>27.88</v>
       </c>
       <c r="H3" s="11" t="n">
-        <v>416</v>
+        <v>300</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>832</v>
+        <v>58</v>
       </c>
       <c r="K3" s="10" t="n">
-        <v>618.5088</v>
+        <v>1617.04</v>
       </c>
       <c r="L3" s="11" t="n">
-        <v>6656</v>
+        <v>17400</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>0</v>
@@ -1127,40 +1195,40 @@
         <v>0</v>
       </c>
       <c r="P3" s="11" t="n">
-        <v>3.328926470844896</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="11" t="n">
-        <v>4.431318393633175</v>
+        <v>0</v>
       </c>
       <c r="R3" s="11" t="n">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="S3" s="11" t="n">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>10076976</t>
+          <t>10076469</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>APVOL</t>
+          <t>APMIRUS</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>21ATL38</t>
+          <t>22ATL44</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Volcano /Pattern/ F&amp;BF&amp;CE</t>
+          <t>Trav.Tiles Mina Rustic /Pattern/ F&amp;BF&amp;CE</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
@@ -1179,13 +1247,13 @@
         <v>6</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>683</v>
+        <v>719</v>
       </c>
       <c r="K4" s="10" t="n">
-        <v>507.8105</v>
+        <v>534.5046</v>
       </c>
       <c r="L4" s="11" t="n">
-        <v>5464</v>
+        <v>5752</v>
       </c>
       <c r="M4" s="2" t="n">
         <v>0</v>
@@ -1197,40 +1265,40 @@
         <v>0</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>3.375394872331885</v>
+        <v>3.328926470844896</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>4.494050735640609</v>
+        <v>4.431318393633175</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>3.16</v>
+        <v>3.11</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>3.4</v>
+        <v>3.33</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>15271128</t>
+          <t>10061703</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>BSAP</t>
+          <t>APMEW</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>22ATL43</t>
+          <t>22ATL42</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>Marble Tile / Bluestone / Antique Pattern Set 1,2 cm / Sandblasted&amp;Brushed</t>
+          <t>Trav.Tiles Meandros Walnut /Pattern/ UF&amp;BF&amp;CE</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
@@ -1249,13 +1317,13 @@
         <v>6</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>562</v>
+        <v>630</v>
       </c>
       <c r="K5" s="10" t="n">
-        <v>417.7908</v>
+        <v>468.405</v>
       </c>
       <c r="L5" s="11" t="n">
-        <v>4496</v>
+        <v>5040</v>
       </c>
       <c r="M5" s="2" t="n">
         <v>0</v>
@@ -1267,40 +1335,40 @@
         <v>0</v>
       </c>
       <c r="P5" s="11" t="n">
-        <v>3.015704423033154</v>
+        <v>3.747142084227796</v>
       </c>
       <c r="Q5" s="11" t="n">
-        <v>4.008468629087322</v>
+        <v>4.99590947170009</v>
       </c>
       <c r="R5" s="11" t="n">
-        <v>3.3</v>
+        <v>3.53</v>
       </c>
       <c r="S5" s="11" t="n">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="T5" s="7" t="n">
-        <v>3.58</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>10080111</t>
+          <t>10076976</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>SCAP</t>
+          <t>APVOL</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>21ATL37</t>
+          <t>MEK-GA-MAY22</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Scabos /Pattern/ F&amp;BF&amp;CE</t>
+          <t>Trav.Tiles Volcano /Pattern/ F&amp;BF&amp;CE</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
@@ -1319,13 +1387,13 @@
         <v>6</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>495</v>
+        <v>547</v>
       </c>
       <c r="K6" s="10" t="n">
-        <v>368.0325</v>
+        <v>406.6945</v>
       </c>
       <c r="L6" s="11" t="n">
-        <v>3960</v>
+        <v>4376</v>
       </c>
       <c r="M6" s="2" t="n">
         <v>0</v>
@@ -1337,65 +1405,65 @@
         <v>0</v>
       </c>
       <c r="P6" s="11" t="n">
-        <v>3.747142084227796</v>
+        <v>3.375394872331885</v>
       </c>
       <c r="Q6" s="11" t="n">
-        <v>4.99590947170009</v>
+        <v>4.494050735640609</v>
       </c>
       <c r="R6" s="11" t="n">
-        <v>3.53</v>
+        <v>3.16</v>
       </c>
       <c r="S6" s="11" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="T6" s="7" t="n">
-        <v>3.72</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>10000938</t>
+          <t>10074439</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>18OB</t>
+          <t>APGOL</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>21ATL38</t>
+          <t>22ATL47</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Oasis Beige / 18"X18" / F&amp;H</t>
+          <t>Trav.Tiles Meandros Gold /Pattern/ F&amp;BF&amp;CE</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G7" s="10" t="n">
-        <v>33.42</v>
+        <v>38.66</v>
       </c>
       <c r="H7" s="11" t="n">
-        <v>359.5992</v>
+        <v>416</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>329</v>
+        <v>522</v>
       </c>
       <c r="K7" s="10" t="n">
-        <v>343.6076</v>
+        <v>388.0548</v>
       </c>
       <c r="L7" s="11" t="n">
-        <v>3697.1375</v>
+        <v>4176</v>
       </c>
       <c r="M7" s="2" t="n">
         <v>0</v>
@@ -1407,40 +1475,40 @@
         <v>0</v>
       </c>
       <c r="P7" s="11" t="n">
-        <v>3.840078887201773</v>
+        <v>3.747142084227796</v>
       </c>
       <c r="Q7" s="11" t="n">
-        <v>5.121374155714959</v>
+        <v>4.99590947170009</v>
       </c>
       <c r="R7" s="11" t="n">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="S7" s="11" t="n">
-        <v>3.78</v>
+        <v>3.72</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>3.77</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>10061703</t>
+          <t>10104421</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>APMEW</t>
+          <t>APSCOTT</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>22ATL42</t>
+          <t>22ATL46</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Meandros Walnut /Pattern/ UF&amp;BF&amp;CE</t>
+          <t>Scott Rustic /  Antique Pattern / Brushed, Chiseled, and Unfilled</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
@@ -1459,128 +1527,128 @@
         <v>6</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="K8" s="10" t="n">
-        <v>333.088</v>
+        <v>365.0094</v>
       </c>
       <c r="L8" s="11" t="n">
-        <v>3584</v>
+        <v>3928</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="N8" s="10" t="n">
-        <v>115.986</v>
+        <v>0</v>
       </c>
       <c r="O8" s="11" t="n">
-        <v>1248</v>
+        <v>0</v>
       </c>
       <c r="P8" s="11" t="n">
-        <v>3.747142084227796</v>
+        <v>3.375394872331885</v>
       </c>
       <c r="Q8" s="11" t="n">
-        <v>4.99590947170009</v>
+        <v>4.494050735640609</v>
       </c>
       <c r="R8" s="11" t="n">
-        <v>3.53</v>
+        <v>3.16</v>
       </c>
       <c r="S8" s="11" t="n">
-        <v>3.72</v>
+        <v>0</v>
       </c>
       <c r="T8" s="7" t="n">
-        <v>3.67</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>20012413</t>
+          <t>10075602</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>20012413</t>
+          <t>PICAP</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>22ATL43</t>
+          <t>MEK-GA-MAY22</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>Marble Tile / Botticino Cream / Tumbled / 10,0x10,0x1,0</t>
+          <t>Trav.Tiles Picasso Ph. /Pattern/ F&amp;BF&amp;CE</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>4320</v>
+        <v>312</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="G9" s="10" t="n">
-        <v>43.2</v>
+        <v>38.66</v>
       </c>
       <c r="H9" s="11" t="n">
-        <v>465</v>
+        <v>416</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>672</v>
+        <v>476</v>
       </c>
       <c r="K9" s="10" t="n">
-        <v>302.4</v>
+        <v>353.906</v>
       </c>
       <c r="L9" s="11" t="n">
-        <v>3255.168</v>
+        <v>3808</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="N9" s="10" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="O9" s="11" t="n">
-        <v>2325.12</v>
+        <v>0</v>
       </c>
       <c r="P9" s="11" t="n">
-        <v>3.340983233442075</v>
+        <v>4.025952493149728</v>
       </c>
       <c r="Q9" s="11" t="n">
-        <v>4.447595023139367</v>
+        <v>5.372303523744699</v>
       </c>
       <c r="R9" s="11" t="n">
-        <v>3.44</v>
+        <v>3.51</v>
       </c>
       <c r="S9" s="11" t="n">
-        <v>0.42</v>
+        <v>3.85</v>
       </c>
       <c r="T9" s="7" t="n">
-        <v>0</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>10074439</t>
+          <t>10071438</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>APGOL</t>
+          <t>DEBAP</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>22ATL42</t>
+          <t>22ATL49</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Meandros Gold /Pattern/ F&amp;BF&amp;CE</t>
+          <t>Trav.Tiles Denizli Beige/Pattern/ F&amp;BF&amp;CE</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
@@ -1599,58 +1667,58 @@
         <v>6</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>392</v>
+        <v>473</v>
       </c>
       <c r="K10" s="10" t="n">
-        <v>291.4128</v>
+        <v>351.6755</v>
       </c>
       <c r="L10" s="11" t="n">
-        <v>3136</v>
+        <v>3784</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="N10" s="10" t="n">
-        <v>57.9852</v>
+        <v>96.655</v>
       </c>
       <c r="O10" s="11" t="n">
-        <v>624</v>
+        <v>1040</v>
       </c>
       <c r="P10" s="11" t="n">
-        <v>3.747142084227796</v>
+        <v>3.468331675305862</v>
       </c>
       <c r="Q10" s="11" t="n">
-        <v>4.99590947170009</v>
+        <v>4.61951541965548</v>
       </c>
       <c r="R10" s="11" t="n">
-        <v>3.53</v>
+        <v>3.25</v>
       </c>
       <c r="S10" s="11" t="n">
-        <v>3.72</v>
+        <v>3.43</v>
       </c>
       <c r="T10" s="7" t="n">
-        <v>3.72</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>10075602</t>
+          <t>15271128</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>PICAP</t>
+          <t>BSAP</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>22ATL44</t>
+          <t>22ATL49</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Picasso Ph. /Pattern/ F&amp;BF&amp;CE</t>
+          <t>Marble Tile / Bluestone / Antique Pattern Set 1,2 cm / Sandblasted&amp;Brushed</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
@@ -1669,149 +1737,153 @@
         <v>6</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>379</v>
+        <v>459</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>281.7865</v>
+        <v>341.2206</v>
       </c>
       <c r="L11" s="11" t="n">
-        <v>3032</v>
+        <v>3672</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="N11" s="10" t="n">
-        <v>38.662</v>
+        <v>135.2988</v>
       </c>
       <c r="O11" s="11" t="n">
-        <v>416</v>
+        <v>1456</v>
       </c>
       <c r="P11" s="11" t="n">
-        <v>4.025952493149728</v>
+        <v>3.015704423033154</v>
       </c>
       <c r="Q11" s="11" t="n">
-        <v>5.372303523744699</v>
+        <v>4.008468629087322</v>
       </c>
       <c r="R11" s="11" t="n">
-        <v>3.51</v>
+        <v>3.3</v>
       </c>
       <c r="S11" s="11" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="T11" s="7" t="n">
-        <v>3.81</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>10086381-1</t>
+          <t>10077236</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>1224BIZAS-1CM</t>
+          <t>SILAP</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>21ATL38</t>
+          <t>22ATL49</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>Marble Tiles / Carrara White/ Polished</t>
+          <t>Trav.Tiles Silver /Pattern/ BF&amp;CE</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>180</v>
+        <v>312</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G12" s="10" t="n">
-        <v>33.49</v>
+        <v>38.66</v>
       </c>
       <c r="H12" s="11" t="n">
-        <v>360.3524</v>
+        <v>416</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>288</v>
+        <v>436</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>267.84</v>
+        <v>324.166</v>
       </c>
       <c r="L12" s="11" t="n">
-        <v>2882.736</v>
+        <v>3488</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="N12" s="10" t="n">
-        <v>0</v>
+        <v>77.324</v>
       </c>
       <c r="O12" s="11" t="n">
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="P12" s="11" t="n">
-        <v>1.904793236174622</v>
+        <v>4.39769970504564</v>
       </c>
       <c r="Q12" s="11" t="n">
-        <v>2.508738526828306</v>
+        <v>5.874162259804178</v>
       </c>
       <c r="R12" s="11" t="n">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="S12" s="11" t="n">
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="T12" s="7" t="n">
-        <v>0</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>10086379</t>
+          <t>10080111</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>12BIZA</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="n"/>
+          <t>SCAP</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>21ATL37</t>
+        </is>
+      </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>Turkish Carrara White Marble Polished Bevelled 12"x12"x3/8"</t>
+          <t>Trav.Tiles Scabos /Pattern/ F&amp;BF&amp;CE</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>420</v>
+        <v>312</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G13" s="10" t="n">
-        <v>39.07</v>
+        <v>38.66</v>
       </c>
       <c r="H13" s="11" t="n">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>512</v>
+        <v>396</v>
       </c>
       <c r="K13" s="10" t="n">
-        <v>238.1312</v>
+        <v>294.426</v>
       </c>
       <c r="L13" s="11" t="n">
-        <v>2560</v>
+        <v>3168</v>
       </c>
       <c r="M13" s="2" t="n">
         <v>0</v>
@@ -1823,65 +1895,65 @@
         <v>0</v>
       </c>
       <c r="P13" s="11" t="n">
-        <v>3.676166873192896</v>
+        <v>3.747142084227796</v>
       </c>
       <c r="Q13" s="11" t="n">
-        <v>4.900092936802975</v>
+        <v>4.99590947170009</v>
       </c>
       <c r="R13" s="11" t="n">
-        <v>4.09</v>
+        <v>3.53</v>
       </c>
       <c r="S13" s="11" t="n">
-        <v>4.32</v>
+        <v>3.9</v>
       </c>
       <c r="T13" s="7" t="n">
-        <v>4.32</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>10104421</t>
+          <t>10000938</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>APSCOTT</t>
+          <t>18OB</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>21ATL31</t>
+          <t>22ATL45</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>Scott Rustic /  Antique Pattern / Brushed, Chiseled, and Unfilled</t>
+          <t>Trav.Tiles Oasis Beige / 18"X18" / F&amp;H</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G14" s="10" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="H14" s="11" t="n">
-        <v>416</v>
+        <v>359.5992</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="K14" s="10" t="n">
-        <v>221.5332</v>
+        <v>276.766</v>
       </c>
       <c r="L14" s="11" t="n">
-        <v>2384</v>
+        <v>2977.9375</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>0</v>
@@ -1893,65 +1965,65 @@
         <v>0</v>
       </c>
       <c r="P14" s="11" t="n">
-        <v>3.375394872331885</v>
+        <v>3.840078887201773</v>
       </c>
       <c r="Q14" s="11" t="n">
-        <v>4.494050735640609</v>
+        <v>5.121374155714959</v>
       </c>
       <c r="R14" s="11" t="n">
-        <v>3.16</v>
+        <v>3.47</v>
       </c>
       <c r="S14" s="11" t="n">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="T14" s="7" t="n">
-        <v>3.26</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>20012415</t>
+          <t>10086381-1</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>20012415</t>
+          <t>1224BIZAS-1CM</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>20ATL15</t>
+          <t>21ATL38</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>Marble Tile / Botticino Cream / Tumbled / 20,0x20,0x1,0</t>
+          <t>Marble Tiles / Carrara White/ Polished</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1125</v>
+        <v>180</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G15" s="10" t="n">
-        <v>46.422</v>
+        <v>33.49</v>
       </c>
       <c r="H15" s="11" t="n">
-        <v>499.5</v>
+        <v>360.3524</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>178</v>
+        <v>288</v>
       </c>
       <c r="K15" s="10" t="n">
-        <v>183.696</v>
+        <v>267.84</v>
       </c>
       <c r="L15" s="11" t="n">
-        <v>1975.8</v>
+        <v>2882.736</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>0</v>
@@ -1963,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="P15" s="11" t="n">
-        <v>3.666262043850998</v>
+        <v>1.904793236174622</v>
       </c>
       <c r="Q15" s="11" t="n">
-        <v>4.886721417191412</v>
+        <v>2.508738526828306</v>
       </c>
       <c r="R15" s="11" t="n">
-        <v>3.94</v>
+        <v>0</v>
       </c>
       <c r="S15" s="11" t="n">
         <v>0</v>
@@ -1981,43 +2053,43 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>10081280</t>
+          <t>10086379</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>1X2TMM</t>
+          <t>12BIZA</t>
         </is>
       </c>
       <c r="C16" s="3" t="n"/>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>Trav.Mosaic Mix/1"X2" / F&amp;H</t>
+          <t>Turkish Carrara White Marble Polished Bevelled 12"x12"x3/8"</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="G16" s="10" t="n">
-        <v>50.23</v>
+        <v>39.07</v>
       </c>
       <c r="H16" s="11" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>166</v>
+        <v>426</v>
       </c>
       <c r="K16" s="10" t="n">
-        <v>154.38</v>
+        <v>198.1326</v>
       </c>
       <c r="L16" s="11" t="n">
-        <v>1660</v>
+        <v>2130</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>0</v>
@@ -2029,65 +2101,65 @@
         <v>0</v>
       </c>
       <c r="P16" s="11" t="n">
-        <v>3.852135649798953</v>
+        <v>3.676166873192896</v>
       </c>
       <c r="Q16" s="11" t="n">
-        <v>5.137650785221152</v>
+        <v>4.900092936802975</v>
       </c>
       <c r="R16" s="11" t="n">
-        <v>4.77</v>
+        <v>4.09</v>
       </c>
       <c r="S16" s="11" t="n">
-        <v>3.7</v>
+        <v>4.32</v>
       </c>
       <c r="T16" s="7" t="n">
-        <v>5.07</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>10080934</t>
+          <t>20012413</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>OBEVEIN</t>
+          <t>20012413</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>20ATL10</t>
+          <t>22ATL48</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>Beig Vein Cut Travertin 12"X24" / F&amp;P</t>
+          <t>Marble Tile / Botticino Cream / Tumbled / 4"x4"x3/8"</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>190</v>
+        <v>4320</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="G17" s="10" t="n">
-        <v>35.35</v>
+        <v>43.2</v>
       </c>
       <c r="H17" s="11" t="n">
-        <v>380</v>
+        <v>465</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>149</v>
+        <v>415</v>
       </c>
       <c r="K17" s="10" t="n">
-        <v>138.6147</v>
+        <v>186.75</v>
       </c>
       <c r="L17" s="11" t="n">
-        <v>1490</v>
+        <v>2010.26</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>0</v>
@@ -2099,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="11" t="n">
-        <v>3.747142084227796</v>
+        <v>3.340983233442075</v>
       </c>
       <c r="Q17" s="11" t="n">
-        <v>4.99590947170009</v>
+        <v>4.447595023139367</v>
       </c>
       <c r="R17" s="11" t="n">
-        <v>3.53</v>
+        <v>3.44</v>
       </c>
       <c r="S17" s="11" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="T17" s="7" t="n">
         <v>0</v>
@@ -2117,43 +2189,47 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>10083724</t>
+          <t>20025123</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Span</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="n"/>
+          <t>20025123</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>22ATL41</t>
+        </is>
+      </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>Marble Mosaic Polished Spanish Mix  1"x2"</t>
+          <t>Myra White Limestone Tile Brushed and Straight Edge 24"x48"x1/2"</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>540</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="G18" s="10" t="n">
-        <v>50.23</v>
+        <v>37.21</v>
       </c>
       <c r="H18" s="11" t="n">
-        <v>540</v>
+        <v>400.38</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="K18" s="10" t="n">
-        <v>116.25</v>
+        <v>186.05</v>
       </c>
       <c r="L18" s="11" t="n">
-        <v>1250</v>
+        <v>2001.9</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>0</v>
@@ -2165,61 +2241,65 @@
         <v>0</v>
       </c>
       <c r="P18" s="11" t="n">
-        <v>5.070218917802561</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="11" t="n">
-        <v>6.782063197026023</v>
+        <v>0</v>
       </c>
       <c r="R18" s="11" t="n">
-        <v>5.42</v>
+        <v>0</v>
       </c>
       <c r="S18" s="11" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="T18" s="7" t="n">
-        <v>5.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>10071421</t>
+          <t>20012415</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>12CB</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="n"/>
+          <t>20012415</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>20ATL15</t>
+        </is>
+      </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Denizli Beige / 12"X12" / F&amp;H</t>
+          <t>Marble Tile / Botticino Cream / Tumbled / 20,0x20,0x1,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>420</v>
+        <v>1125</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="G19" s="10" t="n">
-        <v>39.07</v>
+        <v>46.422</v>
       </c>
       <c r="H19" s="11" t="n">
-        <v>420.39</v>
+        <v>499.5</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="K19" s="10" t="n">
-        <v>105.5777</v>
+        <v>183.696</v>
       </c>
       <c r="L19" s="11" t="n">
-        <v>1135</v>
+        <v>1975.8</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>0</v>
@@ -2231,65 +2311,61 @@
         <v>0</v>
       </c>
       <c r="P19" s="11" t="n">
-        <v>3.003647660435974</v>
+        <v>3.666262043850998</v>
       </c>
       <c r="Q19" s="11" t="n">
-        <v>3.99219199958113</v>
+        <v>4.886721417191412</v>
       </c>
       <c r="R19" s="11" t="n">
-        <v>2.72</v>
+        <v>3.94</v>
       </c>
       <c r="S19" s="11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T19" s="7" t="n">
-        <v>3.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>10087361</t>
+          <t>10081280</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>1224TULIGHT</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>19ATL05</t>
-        </is>
-      </c>
+          <t>1X2TMM</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="n"/>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>Marble Tile Tundra Light Grey 12"x24"x1/2" Polished</t>
+          <t>Trav.Mosaic Mix/1"X2" / F&amp;H</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>190</v>
+        <v>540</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G20" s="10" t="n">
-        <v>35.35</v>
+        <v>50.23</v>
       </c>
       <c r="H20" s="11" t="n">
-        <v>380.366</v>
+        <v>540</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="K20" s="10" t="n">
-        <v>104.1824</v>
+        <v>154.38</v>
       </c>
       <c r="L20" s="11" t="n">
-        <v>1120</v>
+        <v>1660</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>0</v>
@@ -2301,65 +2377,65 @@
         <v>0</v>
       </c>
       <c r="P20" s="11" t="n">
-        <v>3.769103676166873</v>
+        <v>3.852135649798953</v>
       </c>
       <c r="Q20" s="11" t="n">
-        <v>5.025557620817844</v>
+        <v>5.137650785221152</v>
       </c>
       <c r="R20" s="11" t="n">
-        <v>4.86</v>
+        <v>4.77</v>
       </c>
       <c r="S20" s="11" t="n">
-        <v>5.16</v>
+        <v>3.7</v>
       </c>
       <c r="T20" s="7" t="n">
-        <v>5.16</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>20020080</t>
+          <t>10075596</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>APTHULA</t>
+          <t>18PIC</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>20ATL14</t>
+          <t>22ATL46</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tile / Thula Mix / Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Trav.Tiles Picasso Philadelphia /18"X18" / F&amp;H</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G21" s="10" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="H21" s="11" t="n">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="K21" s="10" t="n">
-        <v>93.681</v>
+        <v>152.4824</v>
       </c>
       <c r="L21" s="11" t="n">
-        <v>1008</v>
+        <v>1640.675</v>
       </c>
       <c r="M21" s="2" t="n">
         <v>0</v>
@@ -2371,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="P21" s="11" t="n">
-        <v>3.375394872331885</v>
+        <v>3.747142084227796</v>
       </c>
       <c r="Q21" s="11" t="n">
-        <v>4.494050735640609</v>
+        <v>4.99590947170009</v>
       </c>
       <c r="R21" s="11" t="n">
-        <v>3.16</v>
+        <v>3.88</v>
       </c>
       <c r="S21" s="11" t="n">
         <v>0</v>
@@ -2389,22 +2465,22 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>10071438</t>
+          <t>20020080</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>DEBAP</t>
+          <t>APTHULA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>21ATL40</t>
+          <t>20ATL14</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Denizli Beige/Pattern/ F&amp;BF&amp;CE</t>
+          <t>Travertine Tile / Thula Mix / Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
@@ -2423,13 +2499,13 @@
         <v>6</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="K22" s="10" t="n">
-        <v>86.98950000000001</v>
+        <v>128.6255</v>
       </c>
       <c r="L22" s="11" t="n">
-        <v>936</v>
+        <v>1384</v>
       </c>
       <c r="M22" s="2" t="n">
         <v>0</v>
@@ -2441,65 +2517,65 @@
         <v>0</v>
       </c>
       <c r="P22" s="11" t="n">
-        <v>3.468331675305862</v>
+        <v>3.375394872331885</v>
       </c>
       <c r="Q22" s="11" t="n">
-        <v>4.61951541965548</v>
+        <v>4.494050735640609</v>
       </c>
       <c r="R22" s="11" t="n">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="S22" s="11" t="n">
-        <v>3.43</v>
+        <v>0</v>
       </c>
       <c r="T22" s="7" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>20012445</t>
+          <t>10080934</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>20012445</t>
+          <t>OBEVEIN</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>21ATL35</t>
+          <t>20ATL10</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>Limestone Tile / Limra / Unfilled&amp;Honed&amp;Tumbled / 10,0x10,0x1,0</t>
+          <t>Beige Vein Cut Travertine 12"X24" / F&amp;P</t>
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>4320</v>
+        <v>190</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="G23" s="10" t="n">
-        <v>43.2</v>
+        <v>35.35</v>
       </c>
       <c r="H23" s="11" t="n">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="K23" s="10" t="n">
-        <v>86.40000000000001</v>
+        <v>124.6602</v>
       </c>
       <c r="L23" s="11" t="n">
-        <v>960</v>
+        <v>1340</v>
       </c>
       <c r="M23" s="2" t="n">
         <v>0</v>
@@ -2511,13 +2587,13 @@
         <v>0</v>
       </c>
       <c r="P23" s="11" t="n">
-        <v>3.01452504651577</v>
+        <v>3.747142084227796</v>
       </c>
       <c r="Q23" s="11" t="n">
-        <v>4.006876470788855</v>
+        <v>4.99590947170009</v>
       </c>
       <c r="R23" s="11" t="n">
-        <v>3.09</v>
+        <v>3.53</v>
       </c>
       <c r="S23" s="11" t="n">
         <v>0</v>
@@ -2529,47 +2605,43 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>20071439</t>
+          <t>10083724</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>APDBS</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>20ATL10</t>
-        </is>
-      </c>
+          <t>Span</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n"/>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tile / Denizli Beige / Filled&amp;Brushed&amp;Straight Edge / Antik Pattern Set 1,2 cm</t>
+          <t>Marble Mosaic Polished Spanish Mix  1"x2"</t>
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>312</v>
+        <v>540</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G24" s="10" t="n">
-        <v>38.66</v>
+        <v>50.23</v>
       </c>
       <c r="H24" s="11" t="n">
-        <v>416</v>
+        <v>540</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="K24" s="10" t="n">
-        <v>84.0155</v>
+        <v>116.25</v>
       </c>
       <c r="L24" s="11" t="n">
-        <v>904</v>
+        <v>1250</v>
       </c>
       <c r="M24" s="2" t="n">
         <v>0</v>
@@ -2581,65 +2653,65 @@
         <v>0</v>
       </c>
       <c r="P24" s="11" t="n">
-        <v>3.18952126638393</v>
+        <v>5.070218917802561</v>
       </c>
       <c r="Q24" s="11" t="n">
-        <v>4.24312136761087</v>
+        <v>6.782063197026023</v>
       </c>
       <c r="R24" s="11" t="n">
-        <v>3.25</v>
+        <v>5.42</v>
       </c>
       <c r="S24" s="11" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="T24" s="7" t="n">
-        <v>0</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>20012414</t>
+          <t>10107183</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>20012414</t>
+          <t>PUZSIL</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>21ATL35</t>
+          <t>22ATL45</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>Marble Tile / Botticino Cream / Tumbled / 15,0x15,0x1,0</t>
+          <t>Puzzle Silver Split Face Ledge Stone 7.25''x19.75''</t>
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1672</v>
+        <v>280</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G25" s="10" t="n">
-        <v>37.62</v>
+        <v>25.2</v>
       </c>
       <c r="H25" s="11" t="n">
-        <v>418</v>
+        <v>280</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="K25" s="10" t="n">
-        <v>75.23999999999999</v>
+        <v>114.3</v>
       </c>
       <c r="L25" s="11" t="n">
-        <v>836</v>
+        <v>1270</v>
       </c>
       <c r="M25" s="2" t="n">
         <v>0</v>
@@ -2651,65 +2723,65 @@
         <v>0</v>
       </c>
       <c r="P25" s="11" t="n">
-        <v>3.480388437903042</v>
+        <v>4.291990537343698</v>
       </c>
       <c r="Q25" s="11" t="n">
-        <v>4.635792049161672</v>
+        <v>5.731454883406557</v>
       </c>
       <c r="R25" s="11" t="n">
-        <v>3.58</v>
+        <v>4.3</v>
       </c>
       <c r="S25" s="11" t="n">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="T25" s="7" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>10080932</t>
+          <t>10087361</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>SILVEIN</t>
+          <t>1224TULIGHT</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>20ATL19</t>
+          <t>19ATL05</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>Silver Vein Cut, Travertine 12"x24" / F&amp;P</t>
+          <t>Marble Tile Tundra Light Grey 12"x24"x1/2" Polished</t>
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="10" t="n">
-        <v>36.28</v>
+        <v>35.35</v>
       </c>
       <c r="H26" s="11" t="n">
-        <v>390.37</v>
+        <v>380.366</v>
       </c>
       <c r="I26" s="5" t="n">
         <v>5</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="K26" s="10" t="n">
-        <v>61.3932</v>
+        <v>104.1824</v>
       </c>
       <c r="L26" s="11" t="n">
-        <v>660</v>
+        <v>1120</v>
       </c>
       <c r="M26" s="2" t="n">
         <v>0</v>
@@ -2721,61 +2793,65 @@
         <v>0</v>
       </c>
       <c r="P26" s="11" t="n">
-        <v>3.933015690175751</v>
+        <v>3.769103676166873</v>
       </c>
       <c r="Q26" s="11" t="n">
-        <v>5.246838839729829</v>
+        <v>5.025557620817844</v>
       </c>
       <c r="R26" s="11" t="n">
-        <v>4.12</v>
+        <v>4.86</v>
       </c>
       <c r="S26" s="11" t="n">
-        <v>4.42</v>
+        <v>5.16</v>
       </c>
       <c r="T26" s="7" t="n">
-        <v>4.42</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>10083731</t>
+          <t>10080932</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>CreMar</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="n"/>
+          <t>SILVEIN</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>MEK-GA-MAY22</t>
+        </is>
+      </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>Marble Mosaic Polished Crema Marfil  1"x2"</t>
+          <t>Silver Vein Cut, Travertine 12"x24" / F&amp;P</t>
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>540</v>
+        <v>195</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G27" s="10" t="n">
-        <v>50.23</v>
+        <v>36.28</v>
       </c>
       <c r="H27" s="11" t="n">
-        <v>540</v>
+        <v>390.37</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="K27" s="10" t="n">
-        <v>60.45</v>
+        <v>96.74079999999999</v>
       </c>
       <c r="L27" s="11" t="n">
-        <v>650</v>
+        <v>1040</v>
       </c>
       <c r="M27" s="2" t="n">
         <v>0</v>
@@ -2787,61 +2863,61 @@
         <v>0</v>
       </c>
       <c r="P27" s="11" t="n">
-        <v>3.862040479140851</v>
+        <v>3.933015690175751</v>
       </c>
       <c r="Q27" s="11" t="n">
-        <v>5.151022304832714</v>
+        <v>5.246838839729829</v>
       </c>
       <c r="R27" s="11" t="n">
-        <v>4.4</v>
+        <v>4.12</v>
       </c>
       <c r="S27" s="11" t="n">
-        <v>3.7</v>
+        <v>4.42</v>
       </c>
       <c r="T27" s="7" t="n">
-        <v>4.7</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>10102946</t>
+          <t>10071421</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>NOCBEICORNER</t>
+          <t>12CB</t>
         </is>
       </c>
       <c r="C28" s="3" t="n"/>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>CORNER-Noche Beige travertine/ledge stone/8x14,75</t>
+          <t>Trav.Tiles Denizli Beige / 12"X12" / F&amp;H</t>
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>216</v>
+        <v>420</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="G28" s="10" t="n">
-        <v>17.64</v>
+        <v>39.07</v>
       </c>
       <c r="H28" s="11" t="n">
-        <v>191.52</v>
+        <v>420.39</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="K28" s="10" t="n">
-        <v>59.29</v>
+        <v>94.4153</v>
       </c>
       <c r="L28" s="11" t="n">
-        <v>643.72</v>
+        <v>1015</v>
       </c>
       <c r="M28" s="2" t="n">
         <v>0</v>
@@ -2853,65 +2929,61 @@
         <v>0</v>
       </c>
       <c r="P28" s="11" t="n">
-        <v>4.291990537343698</v>
+        <v>3.003647660435974</v>
       </c>
       <c r="Q28" s="11" t="n">
-        <v>5.731454883406557</v>
+        <v>3.99219199958113</v>
       </c>
       <c r="R28" s="11" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="S28" s="11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T28" s="7" t="n">
-        <v>0</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>20107184</t>
+          <t>10083731</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>20107184</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>21ATL36</t>
-        </is>
-      </c>
+          <t>CreMar</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n"/>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>Travertine Mosaic / Scabos / 18,0x50,0x2,0 / Splitface</t>
+          <t>Marble Mosaic Polished Crema Marfil  1"x2"</t>
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>240</v>
+        <v>540</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G29" s="10" t="n">
-        <v>21.6</v>
+        <v>50.23</v>
       </c>
       <c r="H29" s="11" t="n">
-        <v>232</v>
+        <v>540</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="K29" s="10" t="n">
-        <v>56.7</v>
+        <v>60.45</v>
       </c>
       <c r="L29" s="11" t="n">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="M29" s="2" t="n">
         <v>0</v>
@@ -2923,65 +2995,61 @@
         <v>0</v>
       </c>
       <c r="P29" s="11" t="n">
-        <v>4.291990537343698</v>
+        <v>3.862040479140851</v>
       </c>
       <c r="Q29" s="11" t="n">
-        <v>5.731454883406557</v>
+        <v>5.151022304832714</v>
       </c>
       <c r="R29" s="11" t="n">
-        <v>3.63</v>
+        <v>4.4</v>
       </c>
       <c r="S29" s="11" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T29" s="7" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>10086381</t>
+          <t>10102946</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>1224BIZA-1CM</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>21ATL24</t>
-        </is>
-      </c>
+          <t>NOCBEICORNER</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>Turkish Carrara White Marble Polished Bevelled 12"x24"x3/8"</t>
+          <t>CORNER-Noche Beige travertine/ledge stone/8x14,75</t>
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G30" s="10" t="n">
-        <v>42.42</v>
+        <v>17.64</v>
       </c>
       <c r="H30" s="11" t="n">
-        <v>456.4392</v>
+        <v>191.52</v>
       </c>
       <c r="I30" s="5" t="n">
         <v>6</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="K30" s="10" t="n">
-        <v>48.16</v>
+        <v>59.29</v>
       </c>
       <c r="L30" s="11" t="n">
-        <v>516.516</v>
+        <v>643.72</v>
       </c>
       <c r="M30" s="2" t="n">
         <v>0</v>
@@ -2993,65 +3061,61 @@
         <v>0</v>
       </c>
       <c r="P30" s="11" t="n">
-        <v>3.852135649798953</v>
+        <v>4.291990537343698</v>
       </c>
       <c r="Q30" s="11" t="n">
-        <v>5.137650785221152</v>
+        <v>5.731454883406557</v>
       </c>
       <c r="R30" s="11" t="n">
-        <v>4.37</v>
+        <v>0</v>
       </c>
       <c r="S30" s="11" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="T30" s="7" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>20024040</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>MP-CW-S</t>
-        </is>
-      </c>
+          <t>6000072</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr"/>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>20ATL23</t>
+          <t>22ATL48</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>Diamond Beige Polished Marble Mosaic 38,5x23,5x1,0</t>
+          <t>Travertine Tiles - Silver - Unfilled&amp;Brushed&amp;Chiseled - ANTxPATx1,2</t>
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>352</v>
+        <v>468</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="G31" s="10" t="n">
-        <v>31.8</v>
+        <v>57.99</v>
       </c>
       <c r="H31" s="11" t="n">
-        <v>342.16</v>
+        <v>623.9724</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>11</v>
+        <v>468</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="K31" s="10" t="n">
-        <v>45.54</v>
+        <v>57.99</v>
       </c>
       <c r="L31" s="11" t="n">
-        <v>491.74</v>
+        <v>623.9724</v>
       </c>
       <c r="M31" s="2" t="n">
         <v>0</v>
@@ -3063,13 +3127,13 @@
         <v>0</v>
       </c>
       <c r="P31" s="11" t="n">
-        <v>7.393638992152003</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="11" t="n">
-        <v>9.918680297397771</v>
+        <v>0</v>
       </c>
       <c r="R31" s="11" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="S31" s="11" t="n">
         <v>0</v>
@@ -3081,22 +3145,18 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>10087357</t>
+          <t>10082943</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>1224TUBLUE</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>21ATL24</t>
-        </is>
-      </c>
+          <t>1224MIRA</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="n"/>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>Marble Tile Tundra Earth Grey 12"x24"x1/2" Polished</t>
+          <t>Jerusalem Bone Limestone Tile 12"x24"x1/2" Honed</t>
         </is>
       </c>
       <c r="E32" s="2" t="n">
@@ -3109,19 +3169,19 @@
         <v>35.35</v>
       </c>
       <c r="H32" s="11" t="n">
-        <v>380.366</v>
+        <v>380</v>
       </c>
       <c r="I32" s="5" t="n">
         <v>5</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="K32" s="10" t="n">
-        <v>44.6496</v>
+        <v>56.7422</v>
       </c>
       <c r="L32" s="11" t="n">
-        <v>480</v>
+        <v>610</v>
       </c>
       <c r="M32" s="2" t="n">
         <v>0</v>
@@ -3133,65 +3193,65 @@
         <v>0</v>
       </c>
       <c r="P32" s="11" t="n">
-        <v>3.666262043850998</v>
+        <v>3.804152466408522</v>
       </c>
       <c r="Q32" s="11" t="n">
-        <v>4.886721417191412</v>
+        <v>5.07287348764407</v>
       </c>
       <c r="R32" s="11" t="n">
-        <v>4.65</v>
+        <v>4.02</v>
       </c>
       <c r="S32" s="11" t="n">
         <v>0</v>
       </c>
       <c r="T32" s="7" t="n">
-        <v>0</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>20012441</t>
+          <t>20107185</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>20012441</t>
+          <t>20107185</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>21ATL35</t>
+          <t>22ATL42</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tile / White / Tumbled / 10,0x10,0x1,0</t>
+          <t>Travertine Mosaic / Philadelphia / 7,25"x19,5"x2,0 / Splitface</t>
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>4320</v>
+        <v>240</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="G33" s="10" t="n">
-        <v>43.2</v>
+        <v>21.6</v>
       </c>
       <c r="H33" s="11" t="n">
-        <v>465</v>
+        <v>232</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="K33" s="10" t="n">
-        <v>43.2</v>
+        <v>54.9</v>
       </c>
       <c r="L33" s="11" t="n">
-        <v>464.832</v>
+        <v>589.26</v>
       </c>
       <c r="M33" s="2" t="n">
         <v>0</v>
@@ -3203,13 +3263,13 @@
         <v>0</v>
       </c>
       <c r="P33" s="11" t="n">
-        <v>2.877396311684525</v>
+        <v>4.291990537343698</v>
       </c>
       <c r="Q33" s="11" t="n">
-        <v>3.821752678766674</v>
+        <v>5.731454883406557</v>
       </c>
       <c r="R33" s="11" t="n">
-        <v>2.9</v>
+        <v>3.63</v>
       </c>
       <c r="S33" s="11" t="n">
         <v>0</v>
@@ -3221,43 +3281,47 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>10094959</t>
+          <t>20071439</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>816CB</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="n"/>
+          <t>APDBS</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>20ATL10</t>
+        </is>
+      </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tile Brushed and Chiseled Denizli Beige ( Dökme )</t>
+          <t>Travertine Tile / Denizli Beige / Filled&amp;Brushed&amp;Straight Edge / Antik Pattern Set 1,2 cm</t>
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>468</v>
+        <v>312</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G34" s="10" t="n">
         <v>38.66</v>
       </c>
       <c r="H34" s="11" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="K34" s="10" t="n">
-        <v>36.6781</v>
+        <v>52.045</v>
       </c>
       <c r="L34" s="11" t="n">
-        <v>393.68</v>
+        <v>560</v>
       </c>
       <c r="M34" s="2" t="n">
         <v>0</v>
@@ -3269,16 +3333,16 @@
         <v>0</v>
       </c>
       <c r="P34" s="11" t="n">
-        <v>3.003647660435974</v>
+        <v>3.18952126638393</v>
       </c>
       <c r="Q34" s="11" t="n">
-        <v>3.99219199958113</v>
+        <v>4.24312136761087</v>
       </c>
       <c r="R34" s="11" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="S34" s="11" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T34" s="7" t="n">
         <v>0</v>
@@ -3287,43 +3351,47 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>10104320</t>
+          <t>20107184</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>12MIRUS-1.2</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="n"/>
+          <t>20107184</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>21ATL36</t>
+        </is>
+      </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tile / Filled Honed Straight Edge / Mina Rustic 12''X12''X1/2''</t>
+          <t>Travertine Mosaic / Scabos / 7.25''x19.75''x3/4" / Splitface</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>384</v>
+        <v>240</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G35" s="10" t="n">
-        <v>35.72</v>
+        <v>21.6</v>
       </c>
       <c r="H35" s="11" t="n">
-        <v>384</v>
+        <v>232</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>384</v>
+        <v>5</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="K35" s="10" t="n">
-        <v>35.72</v>
+        <v>48.6</v>
       </c>
       <c r="L35" s="11" t="n">
-        <v>384</v>
+        <v>540</v>
       </c>
       <c r="M35" s="2" t="n">
         <v>0</v>
@@ -3335,16 +3403,16 @@
         <v>0</v>
       </c>
       <c r="P35" s="11" t="n">
-        <v>2.817774054488019</v>
+        <v>4.291990537343698</v>
       </c>
       <c r="Q35" s="11" t="n">
-        <v>3.741262631551391</v>
+        <v>5.731454883406557</v>
       </c>
       <c r="R35" s="11" t="n">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="S35" s="11" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="T35" s="7" t="n">
         <v>0</v>
@@ -3353,43 +3421,47 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>10071430</t>
+          <t>20024040</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>12MIRUS</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="n"/>
+          <t>MP-CW-S</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>20ATL23</t>
+        </is>
+      </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Mina Rustic /12"X12" / F&amp;H</t>
+          <t>Diamond Beige Polished Marble Mosaic 38,5x23,5x1,0</t>
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="G36" s="10" t="n">
-        <v>39.07</v>
+        <v>31.8</v>
       </c>
       <c r="H36" s="11" t="n">
-        <v>420.39</v>
+        <v>342.16</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="K36" s="10" t="n">
-        <v>34.8825</v>
+        <v>45.54</v>
       </c>
       <c r="L36" s="11" t="n">
-        <v>375</v>
+        <v>491.74</v>
       </c>
       <c r="M36" s="2" t="n">
         <v>0</v>
@@ -3401,65 +3473,65 @@
         <v>0</v>
       </c>
       <c r="P36" s="11" t="n">
-        <v>2.817774054488019</v>
+        <v>7.393638992152003</v>
       </c>
       <c r="Q36" s="11" t="n">
-        <v>3.741262631551391</v>
+        <v>9.918680297397771</v>
       </c>
       <c r="R36" s="11" t="n">
-        <v>2.54</v>
+        <v>0.4</v>
       </c>
       <c r="S36" s="11" t="n">
         <v>0</v>
       </c>
       <c r="T36" s="7" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>10071429</t>
+          <t>10087357</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>18MIRUS</t>
+          <t>1224TUBLUE</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>21ATL40</t>
+          <t>21ATL24</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Mina Rustic /18"X18" / F&amp;H</t>
+          <t>Marble Tile Tundra Earth Grey 12"x24"x1/2" Polished</t>
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G37" s="10" t="n">
-        <v>33.42</v>
+        <v>35.35</v>
       </c>
       <c r="H37" s="11" t="n">
-        <v>359.5992</v>
+        <v>380.366</v>
       </c>
       <c r="I37" s="5" t="n">
         <v>5</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K37" s="10" t="n">
-        <v>33.408</v>
+        <v>44.6496</v>
       </c>
       <c r="L37" s="11" t="n">
-        <v>359.6</v>
+        <v>480</v>
       </c>
       <c r="M37" s="2" t="n">
         <v>0</v>
@@ -3471,30 +3543,30 @@
         <v>0</v>
       </c>
       <c r="P37" s="11" t="n">
-        <v>3.096584463409952</v>
+        <v>3.666262043850998</v>
       </c>
       <c r="Q37" s="11" t="n">
-        <v>4.117656683596</v>
+        <v>4.886721417191412</v>
       </c>
       <c r="R37" s="11" t="n">
-        <v>2.72</v>
+        <v>4.65</v>
       </c>
       <c r="S37" s="11" t="n">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="T37" s="7" t="n">
-        <v>3.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>20020106</t>
+          <t>20012445</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>20020106</t>
+          <t>20012445</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -3504,32 +3576,32 @@
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>Marble Tile / Blue Stone / Honed&amp;Tubled / 10,0x10,0x1,0</t>
+          <t>Limestone Tile / Limra / Unfilled&amp;Honed&amp;Tumbled / 4"x4"x2/5"</t>
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>4500</v>
+        <v>4320</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="G38" s="10" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="H38" s="11" t="n">
+        <v>480</v>
+      </c>
+      <c r="I38" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="H38" s="11" t="n">
-        <v>494</v>
-      </c>
-      <c r="I38" s="5" t="n">
-        <v>25</v>
-      </c>
       <c r="J38" s="2" t="n">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="K38" s="10" t="n">
-        <v>30.75</v>
+        <v>44.55</v>
       </c>
       <c r="L38" s="11" t="n">
-        <v>337.02</v>
+        <v>479.16</v>
       </c>
       <c r="M38" s="2" t="n">
         <v>0</v>
@@ -3541,10 +3613,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="11" t="n">
-        <v>3.015704423033154</v>
+        <v>3.01452504651577</v>
       </c>
       <c r="Q38" s="11" t="n">
-        <v>4.008468629087322</v>
+        <v>4.006876470788855</v>
       </c>
       <c r="R38" s="11" t="n">
         <v>3.09</v>
@@ -3559,47 +3631,47 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>30107184</t>
+          <t>20012414</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>PUZSCCOR</t>
+          <t>20012414</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>21ATL37</t>
+          <t>21ATL35</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>Travertine Siding/Scabos Corner/Splitface 18x50x2</t>
+          <t>Marble Tile / Botticino Cream / Tumbled / 6"x6"x2/5"</t>
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>336</v>
+        <v>1672</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G39" s="10" t="n">
-        <v>30.24</v>
+        <v>37.62</v>
       </c>
       <c r="H39" s="11" t="n">
-        <v>325.3824</v>
+        <v>418</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="K39" s="10" t="n">
-        <v>30.24</v>
+        <v>37.62</v>
       </c>
       <c r="L39" s="11" t="n">
-        <v>325.3824</v>
+        <v>404.9584</v>
       </c>
       <c r="M39" s="2" t="n">
         <v>0</v>
@@ -3611,13 +3683,13 @@
         <v>0</v>
       </c>
       <c r="P39" s="11" t="n">
-        <v>2.998029662810656</v>
+        <v>3.480388437903042</v>
       </c>
       <c r="Q39" s="11" t="n">
-        <v>3.98460770278695</v>
+        <v>4.635792049161672</v>
       </c>
       <c r="R39" s="11" t="n">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="S39" s="11" t="n">
         <v>0</v>
@@ -3629,43 +3701,43 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>10096039</t>
+          <t>10094959</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>1X2 TSFS</t>
+          <t>816CB</t>
         </is>
       </c>
       <c r="C40" s="3" t="n"/>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>Split Face 1x2 BRICK SILVER -STACKED STONE</t>
+          <t>Travertine Tile Brushed and Chiseled Denizli Beige ( Dökme )</t>
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>378</v>
+        <v>468</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G40" s="10" t="n">
-        <v>35.16</v>
+        <v>38.66</v>
       </c>
       <c r="H40" s="11" t="n">
-        <v>378.3216</v>
+        <v>415</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K40" s="10" t="n">
-        <v>29.304</v>
+        <v>36.6781</v>
       </c>
       <c r="L40" s="11" t="n">
-        <v>315</v>
+        <v>393.68</v>
       </c>
       <c r="M40" s="2" t="n">
         <v>0</v>
@@ -3677,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="P40" s="11" t="n">
-        <v>4.942548158161542</v>
+        <v>3.003647660435974</v>
       </c>
       <c r="Q40" s="11" t="n">
-        <v>6.609707671510647</v>
+        <v>3.99219199958113</v>
       </c>
       <c r="R40" s="11" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="S40" s="11" t="n">
         <v>0</v>
@@ -3695,47 +3767,43 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>DETSIL 11-51</t>
+          <t>10104320</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>DETSIL 11-51</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t>19ATL01</t>
-        </is>
-      </c>
+          <t>12MIRUS-1.2</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="n"/>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>Traverten Mosaic / Silver / 2"x4" / Tumbled</t>
+          <t>Travertine Tile / Filled Honed Straight Edge / Mina Rustic 12''X12''X1/2''</t>
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>125</v>
+        <v>384</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G41" s="10" t="n">
-        <v>5.81</v>
+        <v>35.72</v>
       </c>
       <c r="H41" s="11" t="n">
-        <v>63</v>
+        <v>384</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>25</v>
+        <v>384</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="K41" s="10" t="n">
-        <v>29</v>
+        <v>35.72</v>
       </c>
       <c r="L41" s="11" t="n">
-        <v>125</v>
+        <v>384</v>
       </c>
       <c r="M41" s="2" t="n">
         <v>0</v>
@@ -3747,16 +3815,16 @@
         <v>0</v>
       </c>
       <c r="P41" s="11" t="n">
-        <v>4.542569589264666</v>
+        <v>2.817774054488019</v>
       </c>
       <c r="Q41" s="11" t="n">
-        <v>6.069736603499864</v>
+        <v>3.741262631551391</v>
       </c>
       <c r="R41" s="11" t="n">
         <v>0</v>
       </c>
       <c r="S41" s="11" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="T41" s="7" t="n">
         <v>0</v>
@@ -3765,47 +3833,43 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>10096038</t>
+          <t>10071430</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>1X2 TSFN</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>21ATL32</t>
-        </is>
-      </c>
+          <t>12MIRUS</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="n"/>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>Split Face 1x2 BRICK NOCE -STACKED STONE</t>
+          <t>Trav.Tiles Mina Rustic /12"X12" / F&amp;H</t>
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="G42" s="10" t="n">
-        <v>35.16</v>
+        <v>39.07</v>
       </c>
       <c r="H42" s="11" t="n">
-        <v>378.3216</v>
+        <v>420.39</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="K42" s="10" t="n">
-        <v>26.048</v>
+        <v>34.8825</v>
       </c>
       <c r="L42" s="11" t="n">
-        <v>280</v>
+        <v>375</v>
       </c>
       <c r="M42" s="2" t="n">
         <v>0</v>
@@ -3817,65 +3881,65 @@
         <v>0</v>
       </c>
       <c r="P42" s="11" t="n">
-        <v>4.942548158161542</v>
+        <v>2.817774054488019</v>
       </c>
       <c r="Q42" s="11" t="n">
-        <v>6.609707671510647</v>
+        <v>3.741262631551391</v>
       </c>
       <c r="R42" s="11" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="S42" s="11" t="n">
         <v>0</v>
       </c>
       <c r="T42" s="7" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>10083373</t>
+          <t>10086381</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>18VOL</t>
+          <t>1224BIZA-1CM</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>20ATL14</t>
+          <t>21ATL24</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Volcano / 18"X18"x1/2" / F&amp;B&amp;C</t>
+          <t>Turkish Carrara White Marble Polished Bevelled 12"x24"x3/8"</t>
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G43" s="10" t="n">
-        <v>33.42</v>
+        <v>42.42</v>
       </c>
       <c r="H43" s="11" t="n">
-        <v>360</v>
+        <v>456.4392</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K43" s="10" t="n">
-        <v>22.9746</v>
+        <v>34.72</v>
       </c>
       <c r="L43" s="11" t="n">
-        <v>247.214</v>
+        <v>372.372</v>
       </c>
       <c r="M43" s="2" t="n">
         <v>0</v>
@@ -3887,65 +3951,65 @@
         <v>0</v>
       </c>
       <c r="P43" s="11" t="n">
-        <v>3.18952126638393</v>
+        <v>3.852135649798953</v>
       </c>
       <c r="Q43" s="11" t="n">
-        <v>4.24312136761087</v>
+        <v>5.137650785221152</v>
       </c>
       <c r="R43" s="11" t="n">
-        <v>2.88</v>
+        <v>4.37</v>
       </c>
       <c r="S43" s="11" t="n">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="T43" s="7" t="n">
-        <v>3.67</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>10094905</t>
+          <t>10087356</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>1616VOL</t>
+          <t>12TUBLUE</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>20RVS08</t>
+          <t>MEK-GA-MAY22</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tile Brushed and Chiseled Volcano</t>
+          <t>Kesir Marble Tile Tundra Earth Grey 12"x12"x3/8" Polished</t>
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>162</v>
+        <v>420</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="G44" s="10" t="n">
-        <v>26.7</v>
+        <v>39.07</v>
       </c>
       <c r="H44" s="11" t="n">
-        <v>287</v>
+        <v>420.3932</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="K44" s="10" t="n">
-        <v>21.7536</v>
+        <v>33.0221</v>
       </c>
       <c r="L44" s="11" t="n">
-        <v>233.8512</v>
+        <v>355</v>
       </c>
       <c r="M44" s="2" t="n">
         <v>0</v>
@@ -3957,61 +4021,65 @@
         <v>0</v>
       </c>
       <c r="P44" s="11" t="n">
-        <v>3.18952126638393</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="11" t="n">
-        <v>4.24312136761087</v>
+        <v>0</v>
       </c>
       <c r="R44" s="11" t="n">
-        <v>2.85</v>
+        <v>4.53</v>
       </c>
       <c r="S44" s="11" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="T44" s="7" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>10104504</t>
+          <t>30107184</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>412GOL</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="n"/>
+          <t>PUZSCCOR</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>21ATL37</t>
+        </is>
+      </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>Scabos Gold Standard /  4"x12"x1/2" /  Brushed and Filled</t>
+          <t>Travertine Siding/Scabos Corner/Splitface 7,25"x19.75"x3/4"</t>
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>900</v>
+        <v>336</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G45" s="10" t="n">
-        <v>27.45</v>
+        <v>30.24</v>
       </c>
       <c r="H45" s="11" t="n">
-        <v>295</v>
+        <v>325.3824</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="K45" s="10" t="n">
-        <v>19.825</v>
+        <v>30.24</v>
       </c>
       <c r="L45" s="11" t="n">
-        <v>213.0544</v>
+        <v>325.3824</v>
       </c>
       <c r="M45" s="2" t="n">
         <v>0</v>
@@ -4023,10 +4091,10 @@
         <v>0</v>
       </c>
       <c r="P45" s="11" t="n">
-        <v>3.096584463409952</v>
+        <v>2.998029662810656</v>
       </c>
       <c r="Q45" s="11" t="n">
-        <v>4.117656683596</v>
+        <v>3.98460770278695</v>
       </c>
       <c r="R45" s="11" t="n">
         <v>0</v>
@@ -4041,12 +4109,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>10086378</t>
+          <t>DETSIL 11-51</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>36BIZA</t>
+          <t>DETSIL 11-51</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -4056,32 +4124,32 @@
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>Turkish Carrara White Marble Polished 3"x6"x3/8"</t>
+          <t>Traverten Mosaic / Silver / 2"x4" / Tumbled</t>
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>2880</v>
+        <v>125</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G46" s="10" t="n">
-        <v>33.47</v>
+        <v>5.81</v>
       </c>
       <c r="H46" s="11" t="n">
-        <v>360</v>
+        <v>63</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K46" s="10" t="n">
-        <v>19.523</v>
+        <v>29</v>
       </c>
       <c r="L46" s="11" t="n">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="M46" s="2" t="n">
         <v>0</v>
@@ -4093,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="P46" s="11" t="n">
-        <v>4.211826099097684</v>
+        <v>4.542569589264666</v>
       </c>
       <c r="Q46" s="11" t="n">
-        <v>5.623232891774439</v>
+        <v>6.069736603499864</v>
       </c>
       <c r="R46" s="11" t="n">
         <v>0</v>
@@ -4111,47 +4179,47 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>10075596</t>
+          <t>20020106</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>18PIC</t>
+          <t>20020106</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>20BD-NJ01</t>
+          <t>21ATL35</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Picasso Philadelphia /18"X18" / F&amp;H</t>
+          <t>Marble Tile / Blue Stone / Honed&amp;Tubled / 4"x4"x2/5"</t>
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>160</v>
+        <v>4500</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="G47" s="10" t="n">
-        <v>33.42</v>
+        <v>45</v>
       </c>
       <c r="H47" s="11" t="n">
-        <v>360</v>
+        <v>494</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="K47" s="10" t="n">
-        <v>18.7992</v>
+        <v>26.75</v>
       </c>
       <c r="L47" s="11" t="n">
-        <v>202.275</v>
+        <v>293.18</v>
       </c>
       <c r="M47" s="2" t="n">
         <v>0</v>
@@ -4163,13 +4231,13 @@
         <v>0</v>
       </c>
       <c r="P47" s="11" t="n">
-        <v>3.747142084227796</v>
+        <v>3.015704423033154</v>
       </c>
       <c r="Q47" s="11" t="n">
-        <v>4.99590947170009</v>
+        <v>4.008468629087322</v>
       </c>
       <c r="R47" s="11" t="n">
-        <v>3.88</v>
+        <v>3.09</v>
       </c>
       <c r="S47" s="11" t="n">
         <v>0</v>
@@ -4181,47 +4249,47 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>10083367</t>
+          <t>10096038</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>18SCA</t>
+          <t>1X2 TSFN</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>20ATL10</t>
+          <t>21ATL32</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Scabos /18"X18"x1/2 / F&amp;B&amp;C</t>
+          <t>Split Face 1x2 BRICK NOCE -STACKED STONE</t>
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>160</v>
+        <v>378</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G48" s="10" t="n">
-        <v>33.42</v>
+        <v>35.16</v>
       </c>
       <c r="H48" s="11" t="n">
-        <v>359.5992</v>
+        <v>378.3216</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K48" s="10" t="n">
-        <v>14.616</v>
+        <v>26.048</v>
       </c>
       <c r="L48" s="11" t="n">
-        <v>157.325</v>
+        <v>280</v>
       </c>
       <c r="M48" s="2" t="n">
         <v>0</v>
@@ -4233,65 +4301,65 @@
         <v>0</v>
       </c>
       <c r="P48" s="11" t="n">
-        <v>3.468331675305862</v>
+        <v>4.942548158161542</v>
       </c>
       <c r="Q48" s="11" t="n">
-        <v>4.61951541965548</v>
+        <v>6.609707671510647</v>
       </c>
       <c r="R48" s="11" t="n">
-        <v>3.37</v>
+        <v>0</v>
       </c>
       <c r="S48" s="11" t="n">
         <v>0</v>
       </c>
       <c r="T48" s="7" t="n">
-        <v>3.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>20012412</t>
+          <t>10083373</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>20012412</t>
+          <t>18VOL</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>20ATL20</t>
+          <t>20ATL14</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>Marble Tile / Botticino Cream / Unfilled&amp;Honed&amp;Tumbled / 5,0x5,0x1,0</t>
+          <t>Trav.Tiles Volcano / 18"X18"x1/2" / F&amp;B&amp;C</t>
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>6144</v>
+        <v>160</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G49" s="10" t="n">
-        <v>14.16</v>
+        <v>33.42</v>
       </c>
       <c r="H49" s="11" t="n">
-        <v>152.304</v>
+        <v>360</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>384</v>
+        <v>5</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K49" s="10" t="n">
-        <v>14.16</v>
+        <v>22.9746</v>
       </c>
       <c r="L49" s="11" t="n">
-        <v>152.304</v>
+        <v>247.214</v>
       </c>
       <c r="M49" s="2" t="n">
         <v>0</v>
@@ -4303,65 +4371,65 @@
         <v>0</v>
       </c>
       <c r="P49" s="11" t="n">
-        <v>4.038009255746908</v>
+        <v>3.18952126638393</v>
       </c>
       <c r="Q49" s="11" t="n">
-        <v>5.388580153250891</v>
+        <v>4.24312136761087</v>
       </c>
       <c r="R49" s="11" t="n">
-        <v>4.12</v>
+        <v>2.88</v>
       </c>
       <c r="S49" s="11" t="n">
         <v>0</v>
       </c>
       <c r="T49" s="7" t="n">
-        <v>0</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>10094587</t>
+          <t>10094905</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>PANEL</t>
+          <t>1616VOL</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>20BD-NJ01</t>
+          <t>20RVS08</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>PANEL-Beige travertine/ledge stone/8x16</t>
+          <t>Travertine Tile Brushed and Chiseled Volcano</t>
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G50" s="10" t="n">
-        <v>17.64</v>
+        <v>26.7</v>
       </c>
       <c r="H50" s="11" t="n">
-        <v>191.52</v>
+        <v>287</v>
       </c>
       <c r="I50" s="5" t="n">
         <v>6</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K50" s="10" t="n">
-        <v>13.72</v>
+        <v>21.7536</v>
       </c>
       <c r="L50" s="11" t="n">
-        <v>148.96</v>
+        <v>233.8512</v>
       </c>
       <c r="M50" s="2" t="n">
         <v>0</v>
@@ -4373,65 +4441,65 @@
         <v>0</v>
       </c>
       <c r="P50" s="11" t="n">
-        <v>4.291990537343698</v>
+        <v>3.18952126638393</v>
       </c>
       <c r="Q50" s="11" t="n">
-        <v>5.731454883406557</v>
+        <v>4.24312136761087</v>
       </c>
       <c r="R50" s="11" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="S50" s="11" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T50" s="7" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>DEMBIA 21-HX</t>
+          <t>10101676</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>DEMBIA 21-HX</t>
+          <t>GOLBEICOR</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>19ATL01</t>
+          <t>MEK-GA-MAY22</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>Marble Mosaic / Hexagon Beige / 2" / Polished</t>
+          <t>CORNER-Yellow Beige travertine/ledge stone/3"x5,75"</t>
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G51" s="10" t="n">
-        <v>9.699999999999999</v>
+        <v>17.64</v>
       </c>
       <c r="H51" s="11" t="n">
-        <v>105</v>
+        <v>191.52</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="K51" s="10" t="n">
-        <v>11.64</v>
+        <v>21.07</v>
       </c>
       <c r="L51" s="11" t="n">
-        <v>126</v>
+        <v>228.76</v>
       </c>
       <c r="M51" s="2" t="n">
         <v>0</v>
@@ -4443,65 +4511,61 @@
         <v>0</v>
       </c>
       <c r="P51" s="11" t="n">
-        <v>6.565656565656566</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="11" t="n">
-        <v>8.800904021628929</v>
+        <v>0</v>
       </c>
       <c r="R51" s="11" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="S51" s="11" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="T51" s="7" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>METPIC 21-51</t>
+          <t>10096039</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>METPIC 21-51</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>19ATL01</t>
-        </is>
-      </c>
+          <t>1X2 TSFS</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="n"/>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>Traverten Mosaic / Picasso / 2"x6,25" / Filled&amp;Polished</t>
+          <t>Split Face 1x2 BRICK SILVER -STACKED STONE</t>
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>153</v>
+        <v>378</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="G52" s="10" t="n">
-        <v>14.23</v>
+        <v>35.16</v>
       </c>
       <c r="H52" s="11" t="n">
-        <v>153</v>
+        <v>378.3216</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="K52" s="10" t="n">
-        <v>11.62</v>
+        <v>20.1872</v>
       </c>
       <c r="L52" s="11" t="n">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="M52" s="2" t="n">
         <v>0</v>
@@ -4513,10 +4577,10 @@
         <v>0</v>
       </c>
       <c r="P52" s="11" t="n">
-        <v>5.871916187901318</v>
+        <v>4.942548158161542</v>
       </c>
       <c r="Q52" s="11" t="n">
-        <v>7.864354511659347</v>
+        <v>6.609707671510647</v>
       </c>
       <c r="R52" s="11" t="n">
         <v>0</v>
@@ -4531,47 +4595,43 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>DEMBIA 22-HX</t>
+          <t>10104504</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>DEMBIA 22-HX</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>19ATL01</t>
-        </is>
-      </c>
+          <t>412GOL</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="n"/>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>Marble Mosaic / Hexagon White / 3" / Polished</t>
+          <t>Scabos Gold Standard /  4"x12"x1/2" /  Brushed and Filled</t>
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G53" s="10" t="n">
-        <v>10.23</v>
+        <v>27.45</v>
       </c>
       <c r="H53" s="11" t="n">
-        <v>110</v>
+        <v>295</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K53" s="10" t="n">
-        <v>11.22</v>
+        <v>19.825</v>
       </c>
       <c r="L53" s="11" t="n">
-        <v>110</v>
+        <v>213.0544</v>
       </c>
       <c r="M53" s="2" t="n">
         <v>0</v>
@@ -4583,10 +4643,10 @@
         <v>0</v>
       </c>
       <c r="P53" s="11" t="n">
-        <v>8.186065694172948</v>
+        <v>3.096584463409952</v>
       </c>
       <c r="Q53" s="11" t="n">
-        <v>10.98845634512605</v>
+        <v>4.117656683596</v>
       </c>
       <c r="R53" s="11" t="n">
         <v>0</v>
@@ -4601,12 +4661,12 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>20012468</t>
+          <t>10086378</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>DEMBIA 21-PA</t>
+          <t>36BIZA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -4616,32 +4676,32 @@
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>Marble Mosaic / Miniversailles Carrara / Mini Pattern Set / Polished</t>
+          <t>Turkish Carrara White Marble Polished 3"x6"x3/8"</t>
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>180</v>
+        <v>2880</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G54" s="10" t="n">
-        <v>16.74</v>
+        <v>33.47</v>
       </c>
       <c r="H54" s="11" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K54" s="10" t="n">
-        <v>10.219</v>
+        <v>19.523</v>
       </c>
       <c r="L54" s="11" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="M54" s="2" t="n">
         <v>0</v>
@@ -4653,16 +4713,16 @@
         <v>0</v>
       </c>
       <c r="P54" s="11" t="n">
-        <v>3.954977282114829</v>
+        <v>4.211826099097684</v>
       </c>
       <c r="Q54" s="11" t="n">
-        <v>5.276486988847584</v>
+        <v>5.623232891774439</v>
       </c>
       <c r="R54" s="11" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="S54" s="11" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="T54" s="7" t="n">
         <v>0</v>
@@ -4671,65 +4731,65 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>20107185</t>
+          <t>10071424</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>20107185</t>
+          <t>12WAL</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>22ATL42</t>
+          <t>MEK-GA-MAY22</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>Travertine Mosaic / Philedelphia / 18,0x50,0x2,0 / Splitface</t>
+          <t>Trav.Tiles Oasis Walnut  12"X12" / F&amp;H</t>
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="G55" s="10" t="n">
-        <v>21.6</v>
+        <v>39.07</v>
       </c>
       <c r="H55" s="11" t="n">
-        <v>232</v>
+        <v>420.39</v>
       </c>
       <c r="I55" s="5" t="n">
         <v>5</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="K55" s="10" t="n">
-        <v>4.5</v>
+        <v>16.2785</v>
       </c>
       <c r="L55" s="11" t="n">
-        <v>48.3</v>
+        <v>175</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="N55" s="10" t="n">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="O55" s="11" t="n">
-        <v>540.96</v>
+        <v>0</v>
       </c>
       <c r="P55" s="11" t="n">
-        <v>4.291990537343698</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="11" t="n">
-        <v>5.731454883406557</v>
+        <v>0</v>
       </c>
       <c r="R55" s="11" t="n">
-        <v>3.63</v>
+        <v>0</v>
       </c>
       <c r="S55" s="11" t="n">
         <v>0</v>
@@ -4741,132 +4801,132 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>10077236</t>
+          <t>10083367</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>SILAP</t>
+          <t>18SCA</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>22ATL42</t>
+          <t>20ATL10</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Silver /Pattern/ BF&amp;CE</t>
+          <t>Trav.Tiles Scabos /18"X18"x1/2 / F&amp;B&amp;C</t>
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G56" s="10" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="H56" s="11" t="n">
-        <v>416</v>
+        <v>359.5992</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K56" s="10" t="n">
-        <v>0</v>
+        <v>14.616</v>
       </c>
       <c r="L56" s="11" t="n">
-        <v>0</v>
+        <v>157.325</v>
       </c>
       <c r="M56" s="2" t="n">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="N56" s="10" t="n">
-        <v>212.641</v>
+        <v>0</v>
       </c>
       <c r="O56" s="11" t="n">
-        <v>2288</v>
+        <v>0</v>
       </c>
       <c r="P56" s="11" t="n">
-        <v>4.39769970504564</v>
+        <v>3.468331675305862</v>
       </c>
       <c r="Q56" s="11" t="n">
-        <v>5.874162259804178</v>
+        <v>4.61951541965548</v>
       </c>
       <c r="R56" s="11" t="n">
-        <v>4.18</v>
+        <v>3.37</v>
       </c>
       <c r="S56" s="11" t="n">
-        <v>4.32</v>
+        <v>0</v>
       </c>
       <c r="T56" s="7" t="n">
-        <v>4.32</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>20025123</t>
+          <t>10094587</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>20025123</t>
+          <t>PANEL</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>22ATL41</t>
+          <t>20BD-NJ01</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>Myra White Limestone Tile Brushed and Straight Edge 24"x48"x1/2"</t>
+          <t>PANEL-Beige travertine/ledge stone/8x16</t>
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>50</v>
+        <v>216</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G57" s="10" t="n">
-        <v>37.21</v>
+        <v>17.64</v>
       </c>
       <c r="H57" s="11" t="n">
-        <v>400.38</v>
+        <v>191.52</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K57" s="10" t="n">
-        <v>0</v>
+        <v>13.72</v>
       </c>
       <c r="L57" s="11" t="n">
-        <v>0</v>
+        <v>148.96</v>
       </c>
       <c r="M57" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N57" s="10" t="n">
-        <v>223.26</v>
+        <v>0</v>
       </c>
       <c r="O57" s="11" t="n">
-        <v>2402.28</v>
+        <v>0</v>
       </c>
       <c r="P57" s="11" t="n">
-        <v>0</v>
+        <v>4.291990537343698</v>
       </c>
       <c r="Q57" s="11" t="n">
-        <v>0</v>
+        <v>5.731454883406557</v>
       </c>
       <c r="R57" s="11" t="n">
         <v>0</v>
@@ -4881,270 +4941,702 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>10107183</t>
+          <t>DEMBIA 21-HX</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>PUZSIL</t>
+          <t>DEMBIA 21-HX</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>22ATL43</t>
+          <t>19ATL01</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>Puzzle Silver Split Face Ledge Stone 7.25''x19.75''</t>
+          <t>Marble Mosaic / Hexagon Beige / 2" / Polished</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G58" s="10" t="n">
-        <v>25.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H58" s="11" t="n">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>-166</v>
+        <v>12</v>
       </c>
       <c r="K58" s="10" t="n">
-        <v>-74.7</v>
+        <v>11.64</v>
       </c>
       <c r="L58" s="11" t="n">
-        <v>-830</v>
+        <v>126</v>
       </c>
       <c r="M58" s="2" t="n">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="N58" s="10" t="n">
-        <v>168.3</v>
+        <v>0</v>
       </c>
       <c r="O58" s="11" t="n">
-        <v>1870</v>
+        <v>0</v>
       </c>
       <c r="P58" s="11" t="n">
-        <v>4.291990537343698</v>
+        <v>6.565656565656566</v>
       </c>
       <c r="Q58" s="11" t="n">
-        <v>5.731454883406557</v>
+        <v>8.800904021628929</v>
       </c>
       <c r="R58" s="11" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="S58" s="11" t="n">
-        <v>4.65</v>
+        <v>5.9</v>
       </c>
       <c r="T58" s="7" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n"/>
-      <c r="B59" s="3" t="n"/>
-      <c r="C59" s="3" t="n"/>
-      <c r="D59" s="3" t="n"/>
-      <c r="E59" s="2" t="n"/>
-      <c r="F59" s="2" t="n"/>
-      <c r="G59" s="10" t="n"/>
-      <c r="H59" s="11" t="n"/>
-      <c r="I59" s="5" t="n"/>
-      <c r="J59" s="2" t="n"/>
-      <c r="K59" s="10" t="n"/>
-      <c r="L59" s="11" t="n"/>
-      <c r="M59" s="2" t="n"/>
-      <c r="N59" s="10" t="n"/>
-      <c r="O59" s="11" t="n"/>
-      <c r="P59" s="11" t="n"/>
-      <c r="Q59" s="11" t="n"/>
-      <c r="R59" s="11" t="n"/>
-      <c r="S59" s="11" t="n"/>
-      <c r="T59" s="7" t="n"/>
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>METPIC 21-51</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>METPIC 21-51</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>19ATL01</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>Traverten Mosaic / Picasso / 2"x6,25" / Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="G59" s="10" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="H59" s="11" t="n">
+        <v>153</v>
+      </c>
+      <c r="I59" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="K59" s="10" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="L59" s="11" t="n">
+        <v>126</v>
+      </c>
+      <c r="M59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" s="11" t="n">
+        <v>5.871916187901318</v>
+      </c>
+      <c r="Q59" s="11" t="n">
+        <v>7.864354511659347</v>
+      </c>
+      <c r="R59" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n"/>
-      <c r="B60" s="3" t="n"/>
-      <c r="C60" s="3" t="n"/>
-      <c r="D60" s="3" t="n"/>
-      <c r="E60" s="2" t="n"/>
-      <c r="F60" s="2" t="n"/>
-      <c r="G60" s="10" t="n"/>
-      <c r="H60" s="11" t="n"/>
-      <c r="I60" s="5" t="n"/>
-      <c r="J60" s="2" t="n"/>
-      <c r="K60" s="10" t="n"/>
-      <c r="L60" s="11" t="n"/>
-      <c r="M60" s="2" t="n"/>
-      <c r="N60" s="10" t="n"/>
-      <c r="O60" s="11" t="n"/>
-      <c r="P60" s="11" t="n"/>
-      <c r="Q60" s="11" t="n"/>
-      <c r="R60" s="11" t="n"/>
-      <c r="S60" s="11" t="n"/>
-      <c r="T60" s="7" t="n"/>
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>DEMBIA 22-HX</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>DEMBIA 22-HX</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>19ATL01</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>Marble Mosaic / Hexagon White / 3" / Polished</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G60" s="10" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="H60" s="11" t="n">
+        <v>110</v>
+      </c>
+      <c r="I60" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="K60" s="10" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="L60" s="11" t="n">
+        <v>110</v>
+      </c>
+      <c r="M60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" s="11" t="n">
+        <v>8.186065694172948</v>
+      </c>
+      <c r="Q60" s="11" t="n">
+        <v>10.98845634512605</v>
+      </c>
+      <c r="R60" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n"/>
-      <c r="B61" s="3" t="n"/>
-      <c r="C61" s="3" t="n"/>
-      <c r="D61" s="3" t="n"/>
-      <c r="E61" s="2" t="n"/>
-      <c r="F61" s="2" t="n"/>
-      <c r="G61" s="10" t="n"/>
-      <c r="H61" s="11" t="n"/>
-      <c r="I61" s="5" t="n"/>
-      <c r="J61" s="2" t="n"/>
-      <c r="K61" s="10" t="n"/>
-      <c r="L61" s="11" t="n"/>
-      <c r="M61" s="2" t="n"/>
-      <c r="N61" s="10" t="n"/>
-      <c r="O61" s="11" t="n"/>
-      <c r="P61" s="11" t="n"/>
-      <c r="Q61" s="11" t="n"/>
-      <c r="R61" s="11" t="n"/>
-      <c r="S61" s="11" t="n"/>
-      <c r="T61" s="7" t="n"/>
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>20012468</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>DEMBIA 21-PA</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>19ATL01</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>Marble Mosaic / Miniversailles Carrara / Mini Pattern Set / Polished</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G61" s="10" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="H61" s="11" t="n">
+        <v>180</v>
+      </c>
+      <c r="I61" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="K61" s="10" t="n">
+        <v>10.219</v>
+      </c>
+      <c r="L61" s="11" t="n">
+        <v>110</v>
+      </c>
+      <c r="M61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="11" t="n">
+        <v>3.954977282114829</v>
+      </c>
+      <c r="Q61" s="11" t="n">
+        <v>5.276486988847584</v>
+      </c>
+      <c r="R61" s="11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="S61" s="11" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T61" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n"/>
-      <c r="B62" s="3" t="n"/>
-      <c r="C62" s="3" t="n"/>
-      <c r="D62" s="3" t="n"/>
-      <c r="E62" s="2" t="n"/>
-      <c r="F62" s="2" t="n"/>
-      <c r="G62" s="10" t="n"/>
-      <c r="H62" s="11" t="n"/>
-      <c r="I62" s="5" t="n"/>
-      <c r="J62" s="2" t="n"/>
-      <c r="K62" s="10" t="n"/>
-      <c r="L62" s="11" t="n"/>
-      <c r="M62" s="2" t="n"/>
-      <c r="N62" s="10" t="n"/>
-      <c r="O62" s="11" t="n"/>
-      <c r="P62" s="11" t="n"/>
-      <c r="Q62" s="11" t="n"/>
-      <c r="R62" s="11" t="n"/>
-      <c r="S62" s="11" t="n"/>
-      <c r="T62" s="7" t="n"/>
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>6000081</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>6000081</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>22ATL49</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marble Tile-Botticino S. Light Cream-Tumbled-10,0x10,0x1,0 / Gönderilen sistemdeki ile uyuşmamaktadır. Bu yüzden SPO gibi girilmiştir. 4 kasa x 96 Kutu </t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>17280</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="10" t="n">
+        <v>384</v>
+      </c>
+      <c r="H62" s="11" t="n">
+        <v>4131.84</v>
+      </c>
+      <c r="I62" s="5" t="n">
+        <v>17280</v>
+      </c>
+      <c r="J62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" s="10" t="n">
+        <v>384</v>
+      </c>
+      <c r="O62" s="11" t="n">
+        <v>4131.84</v>
+      </c>
+      <c r="P62" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="n"/>
-      <c r="B63" s="3" t="n"/>
-      <c r="C63" s="3" t="n"/>
-      <c r="D63" s="3" t="n"/>
-      <c r="E63" s="2" t="n"/>
-      <c r="F63" s="2" t="n"/>
-      <c r="G63" s="10" t="n"/>
-      <c r="H63" s="11" t="n"/>
-      <c r="I63" s="5" t="n"/>
-      <c r="J63" s="2" t="n"/>
-      <c r="K63" s="10" t="n"/>
-      <c r="L63" s="11" t="n"/>
-      <c r="M63" s="2" t="n"/>
-      <c r="N63" s="10" t="n"/>
-      <c r="O63" s="11" t="n"/>
-      <c r="P63" s="11" t="n"/>
-      <c r="Q63" s="11" t="n"/>
-      <c r="R63" s="11" t="n"/>
-      <c r="S63" s="11" t="n"/>
-      <c r="T63" s="7" t="n"/>
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>6000079</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>6000079</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>22ATL49</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tile - Volcano Vein Cut - Filled&amp;Polished - 30,5 - 61,0x1,2 22KET01</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="10" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H63" s="11" t="n">
+        <v>149.67</v>
+      </c>
+      <c r="I63" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K63" s="10" t="n">
+        <v>-13.95</v>
+      </c>
+      <c r="L63" s="11" t="n">
+        <v>-149.67</v>
+      </c>
+      <c r="M63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" s="10" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="O63" s="11" t="n">
+        <v>149.67</v>
+      </c>
+      <c r="P63" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n"/>
-      <c r="B64" s="3" t="n"/>
-      <c r="C64" s="3" t="n"/>
-      <c r="D64" s="3" t="n"/>
-      <c r="E64" s="2" t="n"/>
-      <c r="F64" s="2" t="n"/>
-      <c r="G64" s="10" t="n"/>
-      <c r="H64" s="11" t="n"/>
-      <c r="I64" s="5" t="n"/>
-      <c r="J64" s="2" t="n"/>
-      <c r="K64" s="10" t="n"/>
-      <c r="L64" s="11" t="n"/>
-      <c r="M64" s="2" t="n"/>
-      <c r="N64" s="10" t="n"/>
-      <c r="O64" s="11" t="n"/>
-      <c r="P64" s="11" t="n"/>
-      <c r="Q64" s="11" t="n"/>
-      <c r="R64" s="11" t="n"/>
-      <c r="S64" s="11" t="n"/>
-      <c r="T64" s="7" t="n"/>
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>6000080</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>6000080</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>22ATL49</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tile - Philadelphia - Brushed,&amp;Chiseled,&amp;P.Filled 45,7&amp;45,7&amp;1,2 PO#235</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="10" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="H64" s="11" t="n">
+        <v>202.4</v>
+      </c>
+      <c r="I64" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="J64" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K64" s="10" t="n">
+        <v>-18.81</v>
+      </c>
+      <c r="L64" s="11" t="n">
+        <v>-202.4</v>
+      </c>
+      <c r="M64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" s="10" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="O64" s="11" t="n">
+        <v>202.4</v>
+      </c>
+      <c r="P64" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n"/>
-      <c r="B65" s="3" t="n"/>
-      <c r="C65" s="3" t="n"/>
-      <c r="D65" s="3" t="n"/>
-      <c r="E65" s="2" t="n"/>
-      <c r="F65" s="2" t="n"/>
-      <c r="G65" s="10" t="n"/>
-      <c r="H65" s="11" t="n"/>
-      <c r="I65" s="5" t="n"/>
-      <c r="J65" s="2" t="n"/>
-      <c r="K65" s="10" t="n"/>
-      <c r="L65" s="11" t="n"/>
-      <c r="M65" s="2" t="n"/>
-      <c r="N65" s="10" t="n"/>
-      <c r="O65" s="11" t="n"/>
-      <c r="P65" s="11" t="n"/>
-      <c r="Q65" s="11" t="n"/>
-      <c r="R65" s="11" t="n"/>
-      <c r="S65" s="11" t="n"/>
-      <c r="T65" s="7" t="n"/>
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>6000074</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>6000074</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>22ATL49</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>Denizli Beige Travertine Tile-Brushed, Chiseled Edge, and Un Filled -16"x24"x1/2" MKM1134 Spo Siparişidir.</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="10" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="H65" s="11" t="n">
+        <v>302</v>
+      </c>
+      <c r="I65" s="5" t="n">
+        <v>113</v>
+      </c>
+      <c r="J65" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K65" s="10" t="n">
+        <v>-27.98</v>
+      </c>
+      <c r="L65" s="11" t="n">
+        <v>-302</v>
+      </c>
+      <c r="M65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" s="10" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="O65" s="11" t="n">
+        <v>302</v>
+      </c>
+      <c r="P65" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n"/>
-      <c r="B66" s="3" t="n"/>
-      <c r="C66" s="3" t="n"/>
-      <c r="D66" s="3" t="n"/>
-      <c r="E66" s="2" t="n"/>
-      <c r="F66" s="2" t="n"/>
-      <c r="G66" s="10" t="n"/>
-      <c r="H66" s="11" t="n"/>
-      <c r="I66" s="5" t="n"/>
-      <c r="J66" s="2" t="n"/>
-      <c r="K66" s="10" t="n"/>
-      <c r="L66" s="11" t="n"/>
-      <c r="M66" s="2" t="n"/>
-      <c r="N66" s="10" t="n"/>
-      <c r="O66" s="11" t="n"/>
-      <c r="P66" s="11" t="n"/>
-      <c r="Q66" s="11" t="n"/>
-      <c r="R66" s="11" t="n"/>
-      <c r="S66" s="11" t="n"/>
-      <c r="T66" s="7" t="n"/>
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>6000075</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>6000075 - MKM1134</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>22ATL49</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>Denizli Beige Travertine Tile-Brushed, Chiseled Edge, and Partially Filled - 16"x24"x1/2" - TH MKM1134 SPO siparişidir.</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="10" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="H66" s="11" t="n">
+        <v>102</v>
+      </c>
+      <c r="I66" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K66" s="10" t="n">
+        <v>-27.98</v>
+      </c>
+      <c r="L66" s="11" t="n">
+        <v>-102</v>
+      </c>
+      <c r="M66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" s="10" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="O66" s="11" t="n">
+        <v>102</v>
+      </c>
+      <c r="P66" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="n"/>
-      <c r="B67" s="3" t="n"/>
-      <c r="C67" s="3" t="n"/>
-      <c r="D67" s="3" t="n"/>
-      <c r="E67" s="2" t="n"/>
-      <c r="F67" s="2" t="n"/>
-      <c r="G67" s="10" t="n"/>
-      <c r="H67" s="11" t="n"/>
-      <c r="I67" s="5" t="n"/>
-      <c r="J67" s="2" t="n"/>
-      <c r="K67" s="10" t="n"/>
-      <c r="L67" s="11" t="n"/>
-      <c r="M67" s="2" t="n"/>
-      <c r="N67" s="10" t="n"/>
-      <c r="O67" s="11" t="n"/>
-      <c r="P67" s="11" t="n"/>
-      <c r="Q67" s="11" t="n"/>
-      <c r="R67" s="11" t="n"/>
-      <c r="S67" s="11" t="n"/>
-      <c r="T67" s="7" t="n"/>
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>6000077</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>6000077</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>22ATL49</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tile - Red - Filled&amp;Brushed - ANTxPATx2,0 22KET01</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>288</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="10" t="n">
+        <v>35.68</v>
+      </c>
+      <c r="H67" s="11" t="n">
+        <v>383.92</v>
+      </c>
+      <c r="I67" s="5" t="n">
+        <v>288</v>
+      </c>
+      <c r="J67" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" s="10" t="n">
+        <v>-35.68</v>
+      </c>
+      <c r="L67" s="11" t="n">
+        <v>-383.92</v>
+      </c>
+      <c r="M67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" s="10" t="n">
+        <v>35.68</v>
+      </c>
+      <c r="O67" s="11" t="n">
+        <v>383.92</v>
+      </c>
+      <c r="P67" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n"/>
@@ -14357,7 +14849,7 @@
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/resource_api/raporlar/dosyalar/Atlanta_SM_stock.xlsx
+++ b/resource_api/raporlar/dosyalar/Atlanta_SM_stock.xlsx
@@ -1143,47 +1143,47 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>6000073</t>
+          <t>10076469</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>6000073</t>
+          <t>APMIRUS</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>22ATL48</t>
+          <t>22ATL44</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Botticino Super LiAht Cream Marble Tile - 2"x2"x3/8" - Tumbled</t>
+          <t>Trav.Tiles Mina Rustic /Pattern/ F&amp;BF&amp;CE</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G3" s="10" t="n">
-        <v>27.88</v>
+        <v>38.66</v>
       </c>
       <c r="H3" s="11" t="n">
-        <v>300</v>
+        <v>416</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>58</v>
+        <v>719</v>
       </c>
       <c r="K3" s="10" t="n">
-        <v>1617.04</v>
+        <v>534.5046</v>
       </c>
       <c r="L3" s="11" t="n">
-        <v>17400</v>
+        <v>5752</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>0</v>
@@ -1195,40 +1195,40 @@
         <v>0</v>
       </c>
       <c r="P3" s="11" t="n">
-        <v>0</v>
+        <v>3.328926470844896</v>
       </c>
       <c r="Q3" s="11" t="n">
-        <v>0</v>
+        <v>4.431318393633175</v>
       </c>
       <c r="R3" s="11" t="n">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="S3" s="11" t="n">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="T3" s="7" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>10076469</t>
+          <t>10061703</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>APMIRUS</t>
+          <t>APMEW</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>22ATL44</t>
+          <t>22ATL42</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Mina Rustic /Pattern/ F&amp;BF&amp;CE</t>
+          <t>Trav.Tiles Meandros Walnut /Pattern/ UF&amp;BF&amp;CE</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
@@ -1247,13 +1247,13 @@
         <v>6</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>719</v>
+        <v>630</v>
       </c>
       <c r="K4" s="10" t="n">
-        <v>534.5046</v>
+        <v>468.405</v>
       </c>
       <c r="L4" s="11" t="n">
-        <v>5752</v>
+        <v>5040</v>
       </c>
       <c r="M4" s="2" t="n">
         <v>0</v>
@@ -1265,40 +1265,40 @@
         <v>0</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>3.328926470844896</v>
+        <v>3.747142084227796</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>4.431318393633175</v>
+        <v>4.99590947170009</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>3.11</v>
+        <v>3.53</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>3.33</v>
+        <v>3.72</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>3.3</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>10061703</t>
+          <t>10071438</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>APMEW</t>
+          <t>DEBAP</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>22ATL42</t>
+          <t>22ATL49</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Meandros Walnut /Pattern/ UF&amp;BF&amp;CE</t>
+          <t>Trav.Tiles Denizli Beige/Pattern/ F&amp;BF&amp;CE</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
@@ -1317,13 +1317,13 @@
         <v>6</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>630</v>
+        <v>567</v>
       </c>
       <c r="K5" s="10" t="n">
-        <v>468.405</v>
+        <v>421.5645</v>
       </c>
       <c r="L5" s="11" t="n">
-        <v>5040</v>
+        <v>4536</v>
       </c>
       <c r="M5" s="2" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="P5" s="11" t="n">
-        <v>3.747142084227796</v>
+        <v>3.468331675305862</v>
       </c>
       <c r="Q5" s="11" t="n">
-        <v>4.99590947170009</v>
+        <v>4.61951541965548</v>
       </c>
       <c r="R5" s="11" t="n">
-        <v>3.53</v>
+        <v>3.25</v>
       </c>
       <c r="S5" s="11" t="n">
-        <v>3.72</v>
+        <v>3.43</v>
       </c>
       <c r="T5" s="7" t="n">
-        <v>3.67</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6">
@@ -1423,22 +1423,22 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>10074439</t>
+          <t>10104421</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>APGOL</t>
+          <t>APSCOTT</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>22ATL47</t>
+          <t>22ATL46</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Meandros Gold /Pattern/ F&amp;BF&amp;CE</t>
+          <t>Scott Rustic /  Antique Pattern / Brushed, Chiseled, and Unfilled</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
@@ -1457,13 +1457,13 @@
         <v>6</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>522</v>
+        <v>491</v>
       </c>
       <c r="K7" s="10" t="n">
-        <v>388.0548</v>
+        <v>365.0094</v>
       </c>
       <c r="L7" s="11" t="n">
-        <v>4176</v>
+        <v>3928</v>
       </c>
       <c r="M7" s="2" t="n">
         <v>0</v>
@@ -1475,40 +1475,40 @@
         <v>0</v>
       </c>
       <c r="P7" s="11" t="n">
-        <v>3.747142084227796</v>
+        <v>3.375394872331885</v>
       </c>
       <c r="Q7" s="11" t="n">
-        <v>4.99590947170009</v>
+        <v>4.494050735640609</v>
       </c>
       <c r="R7" s="11" t="n">
-        <v>3.53</v>
+        <v>3.16</v>
       </c>
       <c r="S7" s="11" t="n">
-        <v>3.72</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>3.72</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>10104421</t>
+          <t>10075602</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>APSCOTT</t>
+          <t>PICAP</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>22ATL46</t>
+          <t>MEK-GA-MAY22</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>Scott Rustic /  Antique Pattern / Brushed, Chiseled, and Unfilled</t>
+          <t>Trav.Tiles Picasso Ph. /Pattern/ F&amp;BF&amp;CE</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
@@ -1527,13 +1527,13 @@
         <v>6</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="K8" s="10" t="n">
-        <v>365.0094</v>
+        <v>353.906</v>
       </c>
       <c r="L8" s="11" t="n">
-        <v>3928</v>
+        <v>3808</v>
       </c>
       <c r="M8" s="2" t="n">
         <v>0</v>
@@ -1545,40 +1545,40 @@
         <v>0</v>
       </c>
       <c r="P8" s="11" t="n">
-        <v>3.375394872331885</v>
+        <v>4.025952493149728</v>
       </c>
       <c r="Q8" s="11" t="n">
-        <v>4.494050735640609</v>
+        <v>5.372303523744699</v>
       </c>
       <c r="R8" s="11" t="n">
-        <v>3.16</v>
+        <v>3.51</v>
       </c>
       <c r="S8" s="11" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T8" s="7" t="n">
-        <v>3.26</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>10075602</t>
+          <t>10074439</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>PICAP</t>
+          <t>APGOL</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>MEK-GA-MAY22</t>
+          <t>22ATL47</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Picasso Ph. /Pattern/ F&amp;BF&amp;CE</t>
+          <t>Trav.Tiles Meandros Gold /Pattern/ F&amp;BF&amp;CE</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
@@ -1597,13 +1597,13 @@
         <v>6</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>476</v>
+        <v>392</v>
       </c>
       <c r="K9" s="10" t="n">
-        <v>353.906</v>
+        <v>291.4128</v>
       </c>
       <c r="L9" s="11" t="n">
-        <v>3808</v>
+        <v>3136</v>
       </c>
       <c r="M9" s="2" t="n">
         <v>0</v>
@@ -1615,40 +1615,40 @@
         <v>0</v>
       </c>
       <c r="P9" s="11" t="n">
-        <v>4.025952493149728</v>
+        <v>3.747142084227796</v>
       </c>
       <c r="Q9" s="11" t="n">
-        <v>5.372303523744699</v>
+        <v>4.99590947170009</v>
       </c>
       <c r="R9" s="11" t="n">
-        <v>3.51</v>
+        <v>3.53</v>
       </c>
       <c r="S9" s="11" t="n">
-        <v>3.85</v>
+        <v>3.72</v>
       </c>
       <c r="T9" s="7" t="n">
-        <v>3.81</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>10071438</t>
+          <t>10080111</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>DEBAP</t>
+          <t>SCAP</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>22ATL49</t>
+          <t>21ATL37</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Denizli Beige/Pattern/ F&amp;BF&amp;CE</t>
+          <t>Trav.Tiles Scabos /Pattern/ F&amp;BF&amp;CE</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
@@ -1667,128 +1667,128 @@
         <v>6</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>473</v>
+        <v>380</v>
       </c>
       <c r="K10" s="10" t="n">
-        <v>351.6755</v>
+        <v>282.53</v>
       </c>
       <c r="L10" s="11" t="n">
-        <v>3784</v>
+        <v>3040</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="N10" s="10" t="n">
-        <v>96.655</v>
+        <v>0</v>
       </c>
       <c r="O10" s="11" t="n">
-        <v>1040</v>
+        <v>0</v>
       </c>
       <c r="P10" s="11" t="n">
-        <v>3.468331675305862</v>
+        <v>3.747142084227796</v>
       </c>
       <c r="Q10" s="11" t="n">
-        <v>4.61951541965548</v>
+        <v>4.99590947170009</v>
       </c>
       <c r="R10" s="11" t="n">
-        <v>3.25</v>
+        <v>3.53</v>
       </c>
       <c r="S10" s="11" t="n">
-        <v>3.43</v>
+        <v>3.9</v>
       </c>
       <c r="T10" s="7" t="n">
-        <v>3.4</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>15271128</t>
+          <t>10000938</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>BSAP</t>
+          <t>18OB</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>22ATL49</t>
+          <t>22ATL45</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>Marble Tile / Bluestone / Antique Pattern Set 1,2 cm / Sandblasted&amp;Brushed</t>
+          <t>Trav.Tiles Oasis Beige / 18"X18" / F&amp;H</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G11" s="10" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="H11" s="11" t="n">
-        <v>416</v>
+        <v>359.5992</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>459</v>
+        <v>265</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>341.2206</v>
+        <v>276.766</v>
       </c>
       <c r="L11" s="11" t="n">
-        <v>3672</v>
+        <v>2977.9375</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="N11" s="10" t="n">
-        <v>135.2988</v>
+        <v>0</v>
       </c>
       <c r="O11" s="11" t="n">
-        <v>1456</v>
+        <v>0</v>
       </c>
       <c r="P11" s="11" t="n">
-        <v>3.015704423033154</v>
+        <v>3.840078887201773</v>
       </c>
       <c r="Q11" s="11" t="n">
-        <v>4.008468629087322</v>
+        <v>5.121374155714959</v>
       </c>
       <c r="R11" s="11" t="n">
-        <v>3.3</v>
+        <v>3.47</v>
       </c>
       <c r="S11" s="11" t="n">
-        <v>3.65</v>
+        <v>3.78</v>
       </c>
       <c r="T11" s="7" t="n">
-        <v>3.58</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>10077236</t>
+          <t>15271128</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>SILAP</t>
+          <t>BSAP</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>22ATL49</t>
+          <t>23ATL51</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Silver /Pattern/ BF&amp;CE</t>
+          <t>Marble Tile / Bluestone / Antique Pattern Set 1,2 cm / Sandblasted&amp;Brushed</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
@@ -1807,83 +1807,83 @@
         <v>6</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>436</v>
+        <v>361</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>324.166</v>
+        <v>268.3674</v>
       </c>
       <c r="L12" s="11" t="n">
-        <v>3488</v>
+        <v>2888</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>104</v>
+        <v>446</v>
       </c>
       <c r="N12" s="10" t="n">
-        <v>77.324</v>
+        <v>331.5564</v>
       </c>
       <c r="O12" s="11" t="n">
-        <v>832</v>
+        <v>3568</v>
       </c>
       <c r="P12" s="11" t="n">
-        <v>4.39769970504564</v>
+        <v>3.015704423033154</v>
       </c>
       <c r="Q12" s="11" t="n">
-        <v>5.874162259804178</v>
+        <v>4.008468629087322</v>
       </c>
       <c r="R12" s="11" t="n">
-        <v>4.18</v>
+        <v>3.3</v>
       </c>
       <c r="S12" s="11" t="n">
-        <v>4.32</v>
+        <v>3.65</v>
       </c>
       <c r="T12" s="7" t="n">
-        <v>4.32</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>10080111</t>
+          <t>10086381-1</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>SCAP</t>
+          <t>1224BIZAS-1CM</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>21ATL37</t>
+          <t>21ATL38</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Scabos /Pattern/ F&amp;BF&amp;CE</t>
+          <t>Marble Tiles / Carrara White/ Polished</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>312</v>
+        <v>180</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G13" s="10" t="n">
-        <v>38.66</v>
+        <v>33.49</v>
       </c>
       <c r="H13" s="11" t="n">
-        <v>416</v>
+        <v>360.3524</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>396</v>
+        <v>288</v>
       </c>
       <c r="K13" s="10" t="n">
-        <v>294.426</v>
+        <v>267.84</v>
       </c>
       <c r="L13" s="11" t="n">
-        <v>3168</v>
+        <v>2882.736</v>
       </c>
       <c r="M13" s="2" t="n">
         <v>0</v>
@@ -1895,65 +1895,65 @@
         <v>0</v>
       </c>
       <c r="P13" s="11" t="n">
-        <v>3.747142084227796</v>
+        <v>1.904793236174622</v>
       </c>
       <c r="Q13" s="11" t="n">
-        <v>4.99590947170009</v>
+        <v>2.508738526828306</v>
       </c>
       <c r="R13" s="11" t="n">
-        <v>3.53</v>
+        <v>0</v>
       </c>
       <c r="S13" s="11" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="T13" s="7" t="n">
-        <v>3.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>10000938</t>
+          <t>10077236</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>18OB</t>
+          <t>SILAP</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>22ATL45</t>
+          <t>22ATL49</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>Trav.Tiles Oasis Beige / 18"X18" / F&amp;H</t>
+          <t>Trav.Tiles Silver /Pattern/ BF&amp;CE</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G14" s="10" t="n">
-        <v>33.42</v>
+        <v>38.66</v>
       </c>
       <c r="H14" s="11" t="n">
-        <v>359.5992</v>
+        <v>416</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>265</v>
+        <v>358</v>
       </c>
       <c r="K14" s="10" t="n">
-        <v>276.766</v>
+        <v>266.173</v>
       </c>
       <c r="L14" s="11" t="n">
-        <v>2977.9375</v>
+        <v>2864</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>0</v>
@@ -1965,65 +1965,61 @@
         <v>0</v>
       </c>
       <c r="P14" s="11" t="n">
-        <v>3.840078887201773</v>
+        <v>4.39769970504564</v>
       </c>
       <c r="Q14" s="11" t="n">
-        <v>5.121374155714959</v>
+        <v>5.874162259804178</v>
       </c>
       <c r="R14" s="11" t="n">
-        <v>3.47</v>
+        <v>4.18</v>
       </c>
       <c r="S14" s="11" t="n">
-        <v>3.78</v>
+        <v>4.32</v>
       </c>
       <c r="T14" s="7" t="n">
-        <v>3.77</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>10086381-1</t>
+          <t>10086379</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>1224BIZAS-1CM</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>21ATL38</t>
-        </is>
-      </c>
+          <t>12BIZA</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n"/>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>Marble Tiles / Carrara White/ Polished</t>
+          <t>Turkish Carrara White Marble Polished Bevelled 12"x12"x3/8"</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="G15" s="10" t="n">
-        <v>33.49</v>
+        <v>39.07</v>
       </c>
       <c r="H15" s="11" t="n">
-        <v>360.3524</v>
+        <v>420</v>
       </c>
       <c r="I15" s="5" t="n">
         <v>5</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>288</v>
+        <v>426</v>
       </c>
       <c r="K15" s="10" t="n">
-        <v>267.84</v>
+        <v>198.1326</v>
       </c>
       <c r="L15" s="11" t="n">
-        <v>2882.736</v>
+        <v>2130</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>0</v>
@@ -2035,131 +2031,135 @@
         <v>0</v>
       </c>
       <c r="P15" s="11" t="n">
-        <v>1.904793236174622</v>
+        <v>3.676166873192896</v>
       </c>
       <c r="Q15" s="11" t="n">
-        <v>2.508738526828306</v>
+        <v>4.900092936802975</v>
       </c>
       <c r="R15" s="11" t="n">
-        <v>0</v>
+        <v>4.09</v>
       </c>
       <c r="S15" s="11" t="n">
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="T15" s="7" t="n">
-        <v>0</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>10086379</t>
+          <t>20012413</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>12BIZA</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="n"/>
+          <t>20012413</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>22ATL50</t>
+        </is>
+      </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>Turkish Carrara White Marble Polished Bevelled 12"x12"x3/8"</t>
+          <t>Marble Tile / Botticino Cream / Tumbled / 4"x4"x3/8"</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>420</v>
+        <v>4320</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G16" s="10" t="n">
-        <v>39.07</v>
+        <v>43.2</v>
       </c>
       <c r="H16" s="11" t="n">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="K16" s="10" t="n">
-        <v>198.1326</v>
+        <v>186.75</v>
       </c>
       <c r="L16" s="11" t="n">
-        <v>2130</v>
+        <v>2010.26</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="N16" s="10" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="O16" s="11" t="n">
-        <v>0</v>
+        <v>1395.072</v>
       </c>
       <c r="P16" s="11" t="n">
-        <v>3.676166873192896</v>
+        <v>3.340983233442075</v>
       </c>
       <c r="Q16" s="11" t="n">
-        <v>4.900092936802975</v>
+        <v>4.447595023139367</v>
       </c>
       <c r="R16" s="11" t="n">
-        <v>4.09</v>
+        <v>3.44</v>
       </c>
       <c r="S16" s="11" t="n">
-        <v>4.32</v>
+        <v>0.42</v>
       </c>
       <c r="T16" s="7" t="n">
-        <v>4.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>20012413</t>
+          <t>20025123</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>20012413</t>
+          <t>20025123</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>22ATL48</t>
+          <t>22ATL41</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>Marble Tile / Botticino Cream / Tumbled / 4"x4"x3/8"</t>
+          <t>Myra White Limestone Tile Brushed and Straight Edge 24"x48"x1/2"</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>4320</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="G17" s="10" t="n">
-        <v>43.2</v>
+        <v>37.21</v>
       </c>
       <c r="H17" s="11" t="n">
-        <v>465</v>
+        <v>400.38</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>415</v>
+        <v>5</v>
       </c>
       <c r="K17" s="10" t="n">
-        <v>186.75</v>
+        <v>186.05</v>
       </c>
       <c r="L17" s="11" t="n">
-        <v>2010.26</v>
+        <v>2001.9</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>0</v>
@@ -2171,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="11" t="n">
-        <v>3.340983233442075</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="11" t="n">
-        <v>4.447595023139367</v>
+        <v>0</v>
       </c>
       <c r="R17" s="11" t="n">
-        <v>3.44</v>
+        <v>0</v>
       </c>
       <c r="S17" s="11" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="T17" s="7" t="n">
         <v>0</v>
@@ -2189,47 +2189,47 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>20025123</t>
+          <t>20012415</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>20025123</t>
+          <t>20012415</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>22ATL41</t>
+          <t>20ATL15</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>Myra White Limestone Tile Brushed and Straight Edge 24"x48"x1/2"</t>
+          <t>Marble Tile / Botticino Cream / Tumbled / 20,0x20,0x1,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>50</v>
+        <v>1125</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="G18" s="10" t="n">
-        <v>37.21</v>
+        <v>46.422</v>
       </c>
       <c r="H18" s="11" t="n">
-        <v>400.38</v>
+        <v>499.5</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>5</v>
+        <v>178</v>
       </c>
       <c r="K18" s="10" t="n">
-        <v>186.05</v>
+        <v>183.696</v>
       </c>
       <c r="L18" s="11" t="n">
-        <v>2001.9</v>
+        <v>1975.8</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="P18" s="11" t="n">
-        <v>0</v>
+        <v>3.666262043850998</v>
       </c>
       <c r="Q18" s="11" t="n">
-        <v>0</v>
+        <v>4.886721417191412</v>
       </c>
       <c r="R18" s="11" t="n">
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="S18" s="11" t="n">
         <v>0</v>
@@ -2259,47 +2259,47 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>20012415</t>
+          <t>20012413-R</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>20012415</t>
+          <t>20012413-R</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>20ATL15</t>
+          <t>22ATL49</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>Marble Tile / Botticino Cream / Tumbled / 20,0x20,0x1,0</t>
+          <t>Marble Tile / Botticino Cream / Tumbled / 10,0x10,0x1,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1125</v>
+        <v>4320</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G19" s="10" t="n">
-        <v>46.422</v>
+        <v>43.2</v>
       </c>
       <c r="H19" s="11" t="n">
-        <v>499.5</v>
+        <v>465</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="K19" s="10" t="n">
-        <v>183.696</v>
+        <v>172.8</v>
       </c>
       <c r="L19" s="11" t="n">
-        <v>1975.8</v>
+        <v>1860</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>0</v>
@@ -2311,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="P19" s="11" t="n">
-        <v>3.666262043850998</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="11" t="n">
-        <v>4.886721417191412</v>
+        <v>0</v>
       </c>
       <c r="R19" s="11" t="n">
-        <v>3.94</v>
+        <v>0</v>
       </c>
       <c r="S19" s="11" t="n">
         <v>0</v>
@@ -2465,47 +2465,47 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>20020080</t>
+          <t>10080934</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>APTHULA</t>
+          <t>OBEVEIN</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>20ATL14</t>
+          <t>20ATL10</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tile / Thula Mix / Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Beige Vein Cut Travertine 12"X24" / F&amp;P</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>312</v>
+        <v>190</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G22" s="10" t="n">
-        <v>38.66</v>
+        <v>35.35</v>
       </c>
       <c r="H22" s="11" t="n">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="K22" s="10" t="n">
-        <v>128.6255</v>
+        <v>138.6147</v>
       </c>
       <c r="L22" s="11" t="n">
-        <v>1384</v>
+        <v>1490</v>
       </c>
       <c r="M22" s="2" t="n">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="P22" s="11" t="n">
-        <v>3.375394872331885</v>
+        <v>3.747142084227796</v>
       </c>
       <c r="Q22" s="11" t="n">
-        <v>4.494050735640609</v>
+        <v>4.99590947170009</v>
       </c>
       <c r="R22" s="11" t="n">
-        <v>3.16</v>
+        <v>3.53</v>
       </c>
       <c r="S22" s="11" t="n">
         <v>0</v>
@@ -2535,47 +2535,47 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>10080934</t>
+          <t>20020080</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>OBEVEIN</t>
+          <t>APTHULA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>20ATL10</t>
+          <t>20ATL14</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>Beige Vein Cut Travertine 12"X24" / F&amp;P</t>
+          <t>Travertine Tile / Thula Mix / Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>190</v>
+        <v>312</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G23" s="10" t="n">
-        <v>35.35</v>
+        <v>38.66</v>
       </c>
       <c r="H23" s="11" t="n">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="K23" s="10" t="n">
-        <v>124.6602</v>
+        <v>128.6255</v>
       </c>
       <c r="L23" s="11" t="n">
-        <v>1340</v>
+        <v>1384</v>
       </c>
       <c r="M23" s="2" t="n">
         <v>0</v>
@@ -2587,13 +2587,13 @@
         <v>0</v>
       </c>
       <c r="P23" s="11" t="n">
-        <v>3.747142084227796</v>
+        <v>3.375394872331885</v>
       </c>
       <c r="Q23" s="11" t="n">
-        <v>4.99590947170009</v>
+        <v>4.494050735640609</v>
       </c>
       <c r="R23" s="11" t="n">
-        <v>3.53</v>
+        <v>3.16</v>
       </c>
       <c r="S23" s="11" t="n">
         <v>0</v>
@@ -3351,47 +3351,47 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>20107184</t>
+          <t>20024040</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>20107184</t>
+          <t>MP-CW-S</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>21ATL36</t>
+          <t>20ATL23</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>Travertine Mosaic / Scabos / 7.25''x19.75''x3/4" / Splitface</t>
+          <t>Diamond Beige Polished Marble Mosaic 38,5x23,5x1,0</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>240</v>
+        <v>352</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G35" s="10" t="n">
-        <v>21.6</v>
+        <v>31.8</v>
       </c>
       <c r="H35" s="11" t="n">
-        <v>232</v>
+        <v>342.16</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="K35" s="10" t="n">
-        <v>48.6</v>
+        <v>45.54</v>
       </c>
       <c r="L35" s="11" t="n">
-        <v>540</v>
+        <v>491.74</v>
       </c>
       <c r="M35" s="2" t="n">
         <v>0</v>
@@ -3403,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="P35" s="11" t="n">
-        <v>4.291990537343698</v>
+        <v>7.393638992152003</v>
       </c>
       <c r="Q35" s="11" t="n">
-        <v>5.731454883406557</v>
+        <v>9.918680297397771</v>
       </c>
       <c r="R35" s="11" t="n">
-        <v>3.63</v>
+        <v>0.4</v>
       </c>
       <c r="S35" s="11" t="n">
         <v>0</v>
@@ -3421,47 +3421,47 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>20024040</t>
+          <t>10087357</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>MP-CW-S</t>
+          <t>1224TUBLUE</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>20ATL23</t>
+          <t>21ATL24</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>Diamond Beige Polished Marble Mosaic 38,5x23,5x1,0</t>
+          <t>Marble Tile Tundra Earth Grey 12"x24"x1/2" Polished</t>
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>352</v>
+        <v>190</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G36" s="10" t="n">
-        <v>31.8</v>
+        <v>35.35</v>
       </c>
       <c r="H36" s="11" t="n">
-        <v>342.16</v>
+        <v>380.366</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K36" s="10" t="n">
-        <v>45.54</v>
+        <v>44.6496</v>
       </c>
       <c r="L36" s="11" t="n">
-        <v>491.74</v>
+        <v>480</v>
       </c>
       <c r="M36" s="2" t="n">
         <v>0</v>
@@ -3473,13 +3473,13 @@
         <v>0</v>
       </c>
       <c r="P36" s="11" t="n">
-        <v>7.393638992152003</v>
+        <v>3.666262043850998</v>
       </c>
       <c r="Q36" s="11" t="n">
-        <v>9.918680297397771</v>
+        <v>4.886721417191412</v>
       </c>
       <c r="R36" s="11" t="n">
-        <v>0.4</v>
+        <v>4.65</v>
       </c>
       <c r="S36" s="11" t="n">
         <v>0</v>
@@ -3491,47 +3491,47 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>10087357</t>
+          <t>20012445</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>1224TUBLUE</t>
+          <t>20012445</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>21ATL24</t>
+          <t>21ATL35</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>Marble Tile Tundra Earth Grey 12"x24"x1/2" Polished</t>
+          <t>Limestone Tile / Limra / Unfilled&amp;Honed&amp;Tumbled / 4"x4"x2/5"</t>
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>190</v>
+        <v>4320</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="G37" s="10" t="n">
-        <v>35.35</v>
+        <v>43.2</v>
       </c>
       <c r="H37" s="11" t="n">
-        <v>380.366</v>
+        <v>480</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="K37" s="10" t="n">
-        <v>44.6496</v>
+        <v>44.55</v>
       </c>
       <c r="L37" s="11" t="n">
-        <v>480</v>
+        <v>479.16</v>
       </c>
       <c r="M37" s="2" t="n">
         <v>0</v>
@@ -3543,13 +3543,13 @@
         <v>0</v>
       </c>
       <c r="P37" s="11" t="n">
-        <v>3.666262043850998</v>
+        <v>3.01452504651577</v>
       </c>
       <c r="Q37" s="11" t="n">
-        <v>4.886721417191412</v>
+        <v>4.006876470788855</v>
       </c>
       <c r="R37" s="11" t="n">
-        <v>4.65</v>
+        <v>3.09</v>
       </c>
       <c r="S37" s="11" t="n">
         <v>0</v>
@@ -3561,47 +3561,47 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>20012445</t>
+          <t>20107184</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>20012445</t>
+          <t>20107184</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>21ATL35</t>
+          <t>21ATL36</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>Limestone Tile / Limra / Unfilled&amp;Honed&amp;Tumbled / 4"x4"x2/5"</t>
+          <t>Travertine Mosaic / Scabos / 7.25''x19.75''x3/4" / Splitface</t>
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>4320</v>
+        <v>240</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="G38" s="10" t="n">
-        <v>43.2</v>
+        <v>21.6</v>
       </c>
       <c r="H38" s="11" t="n">
-        <v>480</v>
+        <v>232</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K38" s="10" t="n">
-        <v>44.55</v>
+        <v>41.85</v>
       </c>
       <c r="L38" s="11" t="n">
-        <v>479.16</v>
+        <v>465</v>
       </c>
       <c r="M38" s="2" t="n">
         <v>0</v>
@@ -3613,13 +3613,13 @@
         <v>0</v>
       </c>
       <c r="P38" s="11" t="n">
-        <v>3.01452504651577</v>
+        <v>4.291990537343698</v>
       </c>
       <c r="Q38" s="11" t="n">
-        <v>4.006876470788855</v>
+        <v>5.731454883406557</v>
       </c>
       <c r="R38" s="11" t="n">
-        <v>3.09</v>
+        <v>3.63</v>
       </c>
       <c r="S38" s="11" t="n">
         <v>0</v>
@@ -5221,38 +5221,38 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>6000081</t>
+          <t>20012442</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>6000081</t>
+          <t>20012442</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>22ATL49</t>
+          <t>23ATL51</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marble Tile-Botticino S. Light Cream-Tumbled-10,0x10,0x1,0 / Gönderilen sistemdeki ile uyuşmamaktadır. Bu yüzden SPO gibi girilmiştir. 4 kasa x 96 Kutu </t>
+          <t>Travertine Tile / White / Tumbled / 15,0x15,0x1,0</t>
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>17280</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G62" s="10" t="n">
-        <v>384</v>
+        <v>50</v>
       </c>
       <c r="H62" s="11" t="n">
-        <v>4131.84</v>
+        <v>538</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>17280</v>
+        <v>0</v>
       </c>
       <c r="J62" s="2" t="n">
         <v>0</v>
@@ -5264,13 +5264,13 @@
         <v>0</v>
       </c>
       <c r="M62" s="2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N62" s="10" t="n">
-        <v>384</v>
+        <v>50</v>
       </c>
       <c r="O62" s="11" t="n">
-        <v>4131.84</v>
+        <v>538</v>
       </c>
       <c r="P62" s="11" t="n">
         <v>0</v>
@@ -5291,65 +5291,65 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>6000079</t>
+          <t>20012441</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>6000079</t>
+          <t>20012441</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>22ATL49</t>
+          <t>23ATL51</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tile - Volcano Vein Cut - Filled&amp;Polished - 30,5 - 61,0x1,2 22KET01</t>
+          <t>Travertine Tile / White / Tumbled / 10,0x10,0x1,0</t>
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>75</v>
+        <v>4320</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="G63" s="10" t="n">
-        <v>13.95</v>
+        <v>43.2</v>
       </c>
       <c r="H63" s="11" t="n">
-        <v>149.67</v>
+        <v>465</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="10" t="n">
-        <v>-13.95</v>
+        <v>0</v>
       </c>
       <c r="L63" s="11" t="n">
-        <v>-149.67</v>
+        <v>0</v>
       </c>
       <c r="M63" s="2" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="N63" s="10" t="n">
-        <v>13.95</v>
+        <v>90</v>
       </c>
       <c r="O63" s="11" t="n">
-        <v>149.67</v>
+        <v>968.4</v>
       </c>
       <c r="P63" s="11" t="n">
-        <v>0</v>
+        <v>2.877396311684525</v>
       </c>
       <c r="Q63" s="11" t="n">
-        <v>0</v>
+        <v>3.821752678766674</v>
       </c>
       <c r="R63" s="11" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="S63" s="11" t="n">
         <v>0</v>
@@ -5359,284 +5359,92 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="inlineStr">
-        <is>
-          <t>6000080</t>
-        </is>
-      </c>
-      <c r="B64" s="3" t="inlineStr">
-        <is>
-          <t>6000080</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t>22ATL49</t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tile - Philadelphia - Brushed,&amp;Chiseled,&amp;P.Filled 45,7&amp;45,7&amp;1,2 PO#235</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="F64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" s="10" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="H64" s="11" t="n">
-        <v>202.4</v>
-      </c>
-      <c r="I64" s="5" t="n">
-        <v>90</v>
-      </c>
-      <c r="J64" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K64" s="10" t="n">
-        <v>-18.81</v>
-      </c>
-      <c r="L64" s="11" t="n">
-        <v>-202.4</v>
-      </c>
-      <c r="M64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" s="10" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="O64" s="11" t="n">
-        <v>202.4</v>
-      </c>
-      <c r="P64" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="A64" s="3" t="n"/>
+      <c r="B64" s="3" t="n"/>
+      <c r="C64" s="3" t="n"/>
+      <c r="D64" s="3" t="n"/>
+      <c r="E64" s="2" t="n"/>
+      <c r="F64" s="2" t="n"/>
+      <c r="G64" s="10" t="n"/>
+      <c r="H64" s="11" t="n"/>
+      <c r="I64" s="5" t="n"/>
+      <c r="J64" s="2" t="n"/>
+      <c r="K64" s="10" t="n"/>
+      <c r="L64" s="11" t="n"/>
+      <c r="M64" s="2" t="n"/>
+      <c r="N64" s="10" t="n"/>
+      <c r="O64" s="11" t="n"/>
+      <c r="P64" s="11" t="n"/>
+      <c r="Q64" s="11" t="n"/>
+      <c r="R64" s="11" t="n"/>
+      <c r="S64" s="11" t="n"/>
+      <c r="T64" s="7" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="inlineStr">
-        <is>
-          <t>6000074</t>
-        </is>
-      </c>
-      <c r="B65" s="3" t="inlineStr">
-        <is>
-          <t>6000074</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>22ATL49</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>Denizli Beige Travertine Tile-Brushed, Chiseled Edge, and Un Filled -16"x24"x1/2" MKM1134 Spo Siparişidir.</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="n">
-        <v>113</v>
-      </c>
-      <c r="F65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" s="10" t="n">
-        <v>27.98</v>
-      </c>
-      <c r="H65" s="11" t="n">
-        <v>302</v>
-      </c>
-      <c r="I65" s="5" t="n">
-        <v>113</v>
-      </c>
-      <c r="J65" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K65" s="10" t="n">
-        <v>-27.98</v>
-      </c>
-      <c r="L65" s="11" t="n">
-        <v>-302</v>
-      </c>
-      <c r="M65" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" s="10" t="n">
-        <v>27.98</v>
-      </c>
-      <c r="O65" s="11" t="n">
-        <v>302</v>
-      </c>
-      <c r="P65" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S65" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T65" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="A65" s="3" t="n"/>
+      <c r="B65" s="3" t="n"/>
+      <c r="C65" s="3" t="n"/>
+      <c r="D65" s="3" t="n"/>
+      <c r="E65" s="2" t="n"/>
+      <c r="F65" s="2" t="n"/>
+      <c r="G65" s="10" t="n"/>
+      <c r="H65" s="11" t="n"/>
+      <c r="I65" s="5" t="n"/>
+      <c r="J65" s="2" t="n"/>
+      <c r="K65" s="10" t="n"/>
+      <c r="L65" s="11" t="n"/>
+      <c r="M65" s="2" t="n"/>
+      <c r="N65" s="10" t="n"/>
+      <c r="O65" s="11" t="n"/>
+      <c r="P65" s="11" t="n"/>
+      <c r="Q65" s="11" t="n"/>
+      <c r="R65" s="11" t="n"/>
+      <c r="S65" s="11" t="n"/>
+      <c r="T65" s="7" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="inlineStr">
-        <is>
-          <t>6000075</t>
-        </is>
-      </c>
-      <c r="B66" s="3" t="inlineStr">
-        <is>
-          <t>6000075 - MKM1134</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>22ATL49</t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="inlineStr">
-        <is>
-          <t>Denizli Beige Travertine Tile-Brushed, Chiseled Edge, and Partially Filled - 16"x24"x1/2" - TH MKM1134 SPO siparişidir.</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="F66" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="10" t="n">
-        <v>27.98</v>
-      </c>
-      <c r="H66" s="11" t="n">
-        <v>102</v>
-      </c>
-      <c r="I66" s="5" t="n">
-        <v>38</v>
-      </c>
-      <c r="J66" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K66" s="10" t="n">
-        <v>-27.98</v>
-      </c>
-      <c r="L66" s="11" t="n">
-        <v>-102</v>
-      </c>
-      <c r="M66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" s="10" t="n">
-        <v>27.98</v>
-      </c>
-      <c r="O66" s="11" t="n">
-        <v>102</v>
-      </c>
-      <c r="P66" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S66" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="A66" s="3" t="n"/>
+      <c r="B66" s="3" t="n"/>
+      <c r="C66" s="3" t="n"/>
+      <c r="D66" s="3" t="n"/>
+      <c r="E66" s="2" t="n"/>
+      <c r="F66" s="2" t="n"/>
+      <c r="G66" s="10" t="n"/>
+      <c r="H66" s="11" t="n"/>
+      <c r="I66" s="5" t="n"/>
+      <c r="J66" s="2" t="n"/>
+      <c r="K66" s="10" t="n"/>
+      <c r="L66" s="11" t="n"/>
+      <c r="M66" s="2" t="n"/>
+      <c r="N66" s="10" t="n"/>
+      <c r="O66" s="11" t="n"/>
+      <c r="P66" s="11" t="n"/>
+      <c r="Q66" s="11" t="n"/>
+      <c r="R66" s="11" t="n"/>
+      <c r="S66" s="11" t="n"/>
+      <c r="T66" s="7" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>6000077</t>
-        </is>
-      </c>
-      <c r="B67" s="3" t="inlineStr">
-        <is>
-          <t>6000077</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="inlineStr">
-        <is>
-          <t>22ATL49</t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tile - Red - Filled&amp;Brushed - ANTxPATx2,0 22KET01</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="n">
-        <v>288</v>
-      </c>
-      <c r="F67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" s="10" t="n">
-        <v>35.68</v>
-      </c>
-      <c r="H67" s="11" t="n">
-        <v>383.92</v>
-      </c>
-      <c r="I67" s="5" t="n">
-        <v>288</v>
-      </c>
-      <c r="J67" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K67" s="10" t="n">
-        <v>-35.68</v>
-      </c>
-      <c r="L67" s="11" t="n">
-        <v>-383.92</v>
-      </c>
-      <c r="M67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" s="10" t="n">
-        <v>35.68</v>
-      </c>
-      <c r="O67" s="11" t="n">
-        <v>383.92</v>
-      </c>
-      <c r="P67" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S67" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T67" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="A67" s="3" t="n"/>
+      <c r="B67" s="3" t="n"/>
+      <c r="C67" s="3" t="n"/>
+      <c r="D67" s="3" t="n"/>
+      <c r="E67" s="2" t="n"/>
+      <c r="F67" s="2" t="n"/>
+      <c r="G67" s="10" t="n"/>
+      <c r="H67" s="11" t="n"/>
+      <c r="I67" s="5" t="n"/>
+      <c r="J67" s="2" t="n"/>
+      <c r="K67" s="10" t="n"/>
+      <c r="L67" s="11" t="n"/>
+      <c r="M67" s="2" t="n"/>
+      <c r="N67" s="10" t="n"/>
+      <c r="O67" s="11" t="n"/>
+      <c r="P67" s="11" t="n"/>
+      <c r="Q67" s="11" t="n"/>
+      <c r="R67" s="11" t="n"/>
+      <c r="S67" s="11" t="n"/>
+      <c r="T67" s="7" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n"/>
